--- a/excel/06_函数和公式.xlsx
+++ b/excel/06_函数和公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D82A22-ED51-4663-925B-A60E4F1709A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7463D-F4D1-44A6-B68E-25A5A8FC795C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单元格引用" sheetId="18" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5828" uniqueCount="4321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="4321">
   <si>
     <t>数量</t>
   </si>
@@ -13224,18 +13224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取每周第二个数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H00012769</t>
   </si>
   <si>
     <t>C014673-004</t>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C014673-005</t>
@@ -13318,6 +13310,14 @@
   </si>
   <si>
     <t>赵炎</t>
+  </si>
+  <si>
+    <t>取每周第二个数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列转换：找到row()和column()之间关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13757,7 +13757,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14143,6 +14143,76 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14163,27 +14233,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14227,6 +14276,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14234,44 +14289,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14282,61 +14306,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14346,22 +14333,46 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14630,16 +14641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14654,8 +14665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="651510"/>
-          <a:ext cx="381000" cy="386715"/>
+          <a:off x="716280" y="7837170"/>
+          <a:ext cx="609600" cy="369570"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -14690,16 +14701,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14714,8 +14725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="861060" y="293370"/>
-          <a:ext cx="861060" cy="329565"/>
+          <a:off x="708660" y="9612630"/>
+          <a:ext cx="617220" cy="369570"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -15123,17 +15134,17 @@
       <c r="G2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="163" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
     </row>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="120">
@@ -15150,18 +15161,18 @@
       <c r="G3" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120">
@@ -15188,21 +15199,21 @@
         <f>C4+$E$2</f>
         <v>1500</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120">
@@ -15222,18 +15233,18 @@
       <c r="G7" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
@@ -16494,15 +16505,15 @@
         <f>IF(I2&gt;=600,"第一批",IF(I2&gt;=400,"第二批","落榜"))</f>
         <v>第一批</v>
       </c>
-      <c r="L2" s="149" t="s">
+      <c r="L2" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
       <c r="S2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16827,12 +16838,12 @@
         <v>1000</v>
       </c>
       <c r="O9" s="50"/>
-      <c r="P9" s="149" t="s">
+      <c r="P9" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
@@ -20189,10 +20200,10 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="167" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="151"/>
+      <c r="I4" s="168"/>
       <c r="L4" s="79" t="s">
         <v>10</v>
       </c>
@@ -20716,10 +20727,10 @@
       <c r="F16" s="69">
         <v>277.7</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="155"/>
+      <c r="I16" s="172"/>
       <c r="J16" s="57" t="s">
         <v>190</v>
       </c>
@@ -20758,10 +20769,10 @@
       <c r="F17" s="69">
         <v>278</v>
       </c>
-      <c r="H17" s="156" t="s">
+      <c r="H17" s="173" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="157"/>
+      <c r="I17" s="174"/>
       <c r="J17" s="14">
         <f t="shared" ref="J17:J29" si="3">COUNTIF($H$17:$H$29,H17&amp;"*")</f>
         <v>1</v>
@@ -20809,10 +20820,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="156" t="s">
+      <c r="H18" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="157"/>
+      <c r="I18" s="174"/>
       <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -20860,10 +20871,10 @@
       <c r="F19" s="69">
         <v>408</v>
       </c>
-      <c r="H19" s="158" t="s">
+      <c r="H19" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="159"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -20911,10 +20922,10 @@
       <c r="F20" s="69">
         <v>560</v>
       </c>
-      <c r="H20" s="158" t="s">
+      <c r="H20" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="159"/>
+      <c r="I20" s="176"/>
       <c r="J20" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21162,10 +21173,10 @@
       <c r="F25" s="69">
         <v>1016.78</v>
       </c>
-      <c r="H25" s="158" t="s">
+      <c r="H25" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="159"/>
+      <c r="I25" s="176"/>
       <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21358,10 +21369,10 @@
       <c r="F29" s="69">
         <v>1256.3</v>
       </c>
-      <c r="H29" s="158" t="s">
+      <c r="H29" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="159"/>
+      <c r="I29" s="176"/>
       <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21460,10 +21471,10 @@
       <c r="F32" s="69">
         <v>1328.9</v>
       </c>
-      <c r="H32" s="152" t="s">
+      <c r="H32" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="153"/>
+      <c r="I32" s="170"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -21596,10 +21607,10 @@
       <c r="F37" s="69">
         <v>2977.9</v>
       </c>
-      <c r="H37" s="152" t="s">
+      <c r="H37" s="169" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="153"/>
+      <c r="I37" s="170"/>
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -22947,11 +22958,11 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
       <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
@@ -23436,10 +23447,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="155"/>
+      <c r="I18" s="172"/>
       <c r="J18" s="57" t="s">
         <v>250</v>
       </c>
@@ -23472,10 +23483,10 @@
       <c r="J19" s="12">
         <v>1000</v>
       </c>
-      <c r="L19" s="154" t="s">
+      <c r="L19" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="155"/>
+      <c r="M19" s="172"/>
       <c r="N19" s="57" t="s">
         <v>251</v>
       </c>
@@ -23883,10 +23894,10 @@
       <c r="F33" s="69">
         <v>1421.66</v>
       </c>
-      <c r="H33" s="152" t="s">
+      <c r="H33" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="153"/>
+      <c r="I33" s="170"/>
     </row>
     <row r="34" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
@@ -23907,15 +23918,15 @@
       <c r="F34" s="69">
         <v>1755</v>
       </c>
-      <c r="H34" s="160" t="s">
+      <c r="H34" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="I34" s="161"/>
+      <c r="I34" s="178"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="160" t="s">
+      <c r="K34" s="177" t="s">
         <v>254</v>
       </c>
-      <c r="L34" s="161"/>
+      <c r="L34" s="178"/>
     </row>
     <row r="35" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
@@ -24146,15 +24157,15 @@
       <c r="F42" s="69">
         <v>31330.77</v>
       </c>
-      <c r="H42" s="135" t="s">
+      <c r="H42" s="159" t="s">
         <v>702</v>
       </c>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
     </row>
     <row r="43" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -25172,14 +25183,14 @@
       <c r="H1" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="159" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -25211,19 +25222,19 @@
       <c r="H2" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -25320,11 +25331,11 @@
         <v>273</v>
       </c>
       <c r="O5" s="41"/>
-      <c r="P5" s="135" t="s">
+      <c r="P5" s="159" t="s">
         <v>4277</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
     </row>
     <row r="6" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
@@ -25366,14 +25377,14 @@
         <f>INDEX(A:A,MATCH(M6,B:B,0))</f>
         <v>CHOPS</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="159" t="s">
         <v>4278</v>
       </c>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
     </row>
     <row r="7" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -25456,12 +25467,12 @@
         <f t="shared" si="1"/>
         <v>HANAR</v>
       </c>
-      <c r="P8" s="135" t="s">
+      <c r="P8" s="159" t="s">
         <v>4279</v>
       </c>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
     </row>
     <row r="9" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
@@ -26223,19 +26234,19 @@
       <c r="H23" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="163" t="s">
+      <c r="J23" s="182" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="N23" s="135" t="s">
+      <c r="K23" s="183"/>
+      <c r="N23" s="159" t="s">
         <v>409</v>
       </c>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
     </row>
     <row r="24" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
@@ -26322,7 +26333,7 @@
         <f t="shared" ref="K25:K30" si="6">VLOOKUP(J25&amp;"*",B:E,4,0)</f>
         <v>崇明路50号</v>
       </c>
-      <c r="L25" s="196" t="s">
+      <c r="L25" s="152" t="s">
         <v>4280</v>
       </c>
       <c r="M25" s="7"/>
@@ -26682,13 +26693,13 @@
       <c r="H32" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="162" t="s">
+      <c r="J32" s="179" t="s">
         <v>460</v>
       </c>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
       <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -26775,10 +26786,10 @@
         <f>VLOOKUP(N34&amp;"",$J$33:$L$36,3,0)</f>
         <v>95</v>
       </c>
-      <c r="P34" s="197" t="s">
+      <c r="P34" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="Q34" s="189"/>
+      <c r="Q34" s="181"/>
     </row>
     <row r="35" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
@@ -26981,7 +26992,7 @@
         <f>VLOOKUP(N39*1,$J$38:$L$41,3,0)</f>
         <v>95</v>
       </c>
-      <c r="P39" s="198" t="s">
+      <c r="P39" s="153" t="s">
         <v>491</v>
       </c>
     </row>
@@ -27187,7 +27198,7 @@
         <f>IF(ISNA(VLOOKUP(N44*1,$J$43:$L$46,3,0)),VLOOKUP(N44&amp;"",$J$43:$L$46,3,0),VLOOKUP(N44*1,$J$43:$L$46,3,0))</f>
         <v>95</v>
       </c>
-      <c r="P44" s="199" t="s">
+      <c r="P44" s="154" t="s">
         <v>505</v>
       </c>
     </row>
@@ -27329,14 +27340,14 @@
       <c r="H48" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="150" t="s">
+      <c r="J48" s="167" t="s">
         <v>518</v>
       </c>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
+      <c r="K48" s="168"/>
+      <c r="L48" s="168"/>
+      <c r="M48" s="168"/>
+      <c r="N48" s="168"/>
+      <c r="O48" s="168"/>
     </row>
     <row r="49" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
@@ -27822,7 +27833,7 @@
         <v>3000</v>
       </c>
       <c r="P60" s="46">
-        <f>IF(O60&lt;=3500,0,VLOOKUP(O60-3000,$J$59:$M$66,3,1)*(O60-3000)-VLOOKUP(O60-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" ref="P60:P66" si="9">IF(O60&lt;=3500,0,VLOOKUP(O60-3000,$J$59:$M$66,3,1)*(O60-3000)-VLOOKUP(O60-3000,$J$59:$M$66,4,1))</f>
         <v>0</v>
       </c>
     </row>
@@ -27868,7 +27879,7 @@
         <v>4000</v>
       </c>
       <c r="P61" s="49">
-        <f>IF(O61&lt;=3500,0,VLOOKUP(O61-3000,$J$59:$M$66,3,1)*(O61-3000)-VLOOKUP(O61-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
@@ -27914,7 +27925,7 @@
         <v>8000</v>
       </c>
       <c r="P62" s="49">
-        <f>IF(O62&lt;=3500,0,VLOOKUP(O62-3000,$J$59:$M$66,3,1)*(O62-3000)-VLOOKUP(O62-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>445</v>
       </c>
     </row>
@@ -27960,7 +27971,7 @@
         <v>12500</v>
       </c>
       <c r="P63" s="49">
-        <f>IF(O63&lt;=3500,0,VLOOKUP(O63-3000,$J$59:$M$66,3,1)*(O63-3000)-VLOOKUP(O63-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>1370</v>
       </c>
     </row>
@@ -28006,7 +28017,7 @@
         <v>15000</v>
       </c>
       <c r="P64" s="49">
-        <f>IF(O64&lt;=3500,0,VLOOKUP(O64-3000,$J$59:$M$66,3,1)*(O64-3000)-VLOOKUP(O64-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>1995</v>
       </c>
     </row>
@@ -28052,7 +28063,7 @@
         <v>20000</v>
       </c>
       <c r="P65" s="49">
-        <f>IF(O65&lt;=3500,0,VLOOKUP(O65-3000,$J$59:$M$66,3,1)*(O65-3000)-VLOOKUP(O65-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>3245</v>
       </c>
     </row>
@@ -28098,7 +28109,7 @@
         <v>30000</v>
       </c>
       <c r="P66" s="77">
-        <f>IF(O66&lt;=3500,0,VLOOKUP(O66-3000,$J$59:$M$66,3,1)*(O66-3000)-VLOOKUP(O66-3000,$J$59:$M$66,4,1))</f>
+        <f t="shared" si="9"/>
         <v>5745</v>
       </c>
     </row>
@@ -29570,21 +29581,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="159" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
@@ -29759,12 +29770,12 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="159" t="s">
         <v>686</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29908,19 +29919,19 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="159" t="s">
         <v>690</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
@@ -30016,14 +30027,14 @@
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="159" t="s">
         <v>695</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
@@ -30105,12 +30116,12 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="135" t="s">
+      <c r="A26" s="159" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
@@ -30851,10 +30862,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="127"/>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="159" t="s">
         <v>716</v>
       </c>
-      <c r="L17" s="135"/>
+      <c r="L17" s="159"/>
     </row>
     <row r="18" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="125">
@@ -30885,14 +30896,14 @@
         <v>2.52</v>
       </c>
       <c r="J18" s="127"/>
-      <c r="K18" s="166" t="s">
+      <c r="K18" s="186" t="s">
         <v>718</v>
       </c>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="128"/>
       <c r="S18" s="4"/>
@@ -30927,15 +30938,15 @@
         <v>0.4088</v>
       </c>
       <c r="J19" s="127"/>
-      <c r="K19" s="166" t="s">
+      <c r="K19" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
       <c r="R19" s="128"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -30969,14 +30980,14 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="J20" s="127"/>
-      <c r="K20" s="166" t="s">
+      <c r="K20" s="186" t="s">
         <v>743</v>
       </c>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
       <c r="Q20" s="130"/>
       <c r="R20" s="130"/>
       <c r="S20" s="4"/>
@@ -31011,15 +31022,15 @@
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="148" t="s">
+      <c r="K21" s="184" t="s">
         <v>744</v>
       </c>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -31052,17 +31063,17 @@
       <c r="I22" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K22" s="148" t="s">
+      <c r="K22" s="184" t="s">
         <v>745</v>
       </c>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
       <c r="T22" s="11"/>
       <c r="U22" s="121"/>
     </row>
@@ -31123,11 +31134,11 @@
       <c r="I24" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="K24" s="135" t="s">
+      <c r="K24" s="159" t="s">
         <v>726</v>
       </c>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
     </row>
     <row r="25" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="125">
@@ -31157,17 +31168,17 @@
       <c r="I25" s="129">
         <v>0.36809999999999998</v>
       </c>
-      <c r="K25" s="148" t="s">
+      <c r="K25" s="184" t="s">
         <v>727</v>
       </c>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -31200,17 +31211,17 @@
       <c r="I26" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K26" s="148" t="s">
+      <c r="K26" s="184" t="s">
         <v>728</v>
       </c>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -31243,17 +31254,17 @@
       <c r="I27" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="184" t="s">
         <v>730</v>
       </c>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -31287,17 +31298,17 @@
         <f>H28/G28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="184" t="s">
         <v>732</v>
       </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -31330,20 +31341,20 @@
       <c r="I29" s="129">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K29" s="165" t="s">
+      <c r="K29" s="185" t="s">
         <v>734</v>
       </c>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="185"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="185"/>
     </row>
     <row r="30" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="125">
@@ -31373,18 +31384,18 @@
       <c r="I30" s="129">
         <v>0.25059999999999999</v>
       </c>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="185"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
     </row>
     <row r="31" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="125">
@@ -31507,789 +31518,789 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898EA83F-4554-4272-9C49-177FBF5E6541}">
-  <dimension ref="A1:N3466"/>
+  <dimension ref="A1:L3466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="171" customWidth="1"/>
-    <col min="2" max="3" width="8.59765625" style="171" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="167" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="167"/>
-    <col min="6" max="6" width="10.09765625" style="167" customWidth="1"/>
-    <col min="7" max="9" width="8.796875" style="167"/>
-    <col min="10" max="10" width="8.796875" style="167" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="138" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" style="138" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="136" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="136"/>
+    <col min="6" max="6" width="10.09765625" style="136" customWidth="1"/>
+    <col min="7" max="9" width="8.796875" style="136"/>
+    <col min="10" max="10" width="8.796875" style="136" customWidth="1"/>
     <col min="11" max="11" width="8.3984375" style="13" customWidth="1"/>
     <col min="12" max="12" width="16.8984375" style="13" customWidth="1"/>
-    <col min="13" max="209" width="8.796875" style="167"/>
-    <col min="210" max="210" width="3" style="167" customWidth="1"/>
-    <col min="211" max="211" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="213" max="214" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="216" max="219" width="8.796875" style="167"/>
-    <col min="220" max="220" width="11.19921875" style="167" customWidth="1"/>
-    <col min="221" max="221" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="222" max="223" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="225" max="226" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="227" max="465" width="8.796875" style="167"/>
-    <col min="466" max="466" width="3" style="167" customWidth="1"/>
-    <col min="467" max="467" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="469" max="470" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="472" max="475" width="8.796875" style="167"/>
-    <col min="476" max="476" width="11.19921875" style="167" customWidth="1"/>
-    <col min="477" max="477" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="478" max="479" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="481" max="482" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="483" max="721" width="8.796875" style="167"/>
-    <col min="722" max="722" width="3" style="167" customWidth="1"/>
-    <col min="723" max="723" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="724" max="724" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="725" max="726" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="727" max="727" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="728" max="731" width="8.796875" style="167"/>
-    <col min="732" max="732" width="11.19921875" style="167" customWidth="1"/>
-    <col min="733" max="733" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="734" max="735" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="736" max="736" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="737" max="738" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="739" max="977" width="8.796875" style="167"/>
-    <col min="978" max="978" width="3" style="167" customWidth="1"/>
-    <col min="979" max="979" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="980" max="980" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="981" max="982" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="983" max="983" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="984" max="987" width="8.796875" style="167"/>
-    <col min="988" max="988" width="11.19921875" style="167" customWidth="1"/>
-    <col min="989" max="989" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="990" max="991" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="992" max="992" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="993" max="994" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="995" max="1233" width="8.796875" style="167"/>
-    <col min="1234" max="1234" width="3" style="167" customWidth="1"/>
-    <col min="1235" max="1235" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1236" max="1236" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1237" max="1238" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="1239" max="1239" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1240" max="1243" width="8.796875" style="167"/>
-    <col min="1244" max="1244" width="11.19921875" style="167" customWidth="1"/>
-    <col min="1245" max="1245" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1246" max="1247" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="1248" max="1248" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1249" max="1250" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1251" max="1489" width="8.796875" style="167"/>
-    <col min="1490" max="1490" width="3" style="167" customWidth="1"/>
-    <col min="1491" max="1491" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1492" max="1492" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1493" max="1494" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="1495" max="1495" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1496" max="1499" width="8.796875" style="167"/>
-    <col min="1500" max="1500" width="11.19921875" style="167" customWidth="1"/>
-    <col min="1501" max="1501" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1502" max="1503" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="1504" max="1504" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1505" max="1506" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1507" max="1745" width="8.796875" style="167"/>
-    <col min="1746" max="1746" width="3" style="167" customWidth="1"/>
-    <col min="1747" max="1747" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1748" max="1748" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1749" max="1750" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="1751" max="1751" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1752" max="1755" width="8.796875" style="167"/>
-    <col min="1756" max="1756" width="11.19921875" style="167" customWidth="1"/>
-    <col min="1757" max="1757" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1758" max="1759" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="1760" max="1760" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1761" max="1762" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="1763" max="2001" width="8.796875" style="167"/>
-    <col min="2002" max="2002" width="3" style="167" customWidth="1"/>
-    <col min="2003" max="2003" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2004" max="2004" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2005" max="2006" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="2007" max="2007" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2008" max="2011" width="8.796875" style="167"/>
-    <col min="2012" max="2012" width="11.19921875" style="167" customWidth="1"/>
-    <col min="2013" max="2013" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2014" max="2015" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="2016" max="2016" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2017" max="2018" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2019" max="2257" width="8.796875" style="167"/>
-    <col min="2258" max="2258" width="3" style="167" customWidth="1"/>
-    <col min="2259" max="2259" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2260" max="2260" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2261" max="2262" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="2263" max="2263" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2264" max="2267" width="8.796875" style="167"/>
-    <col min="2268" max="2268" width="11.19921875" style="167" customWidth="1"/>
-    <col min="2269" max="2269" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2270" max="2271" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="2272" max="2272" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2273" max="2274" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2275" max="2513" width="8.796875" style="167"/>
-    <col min="2514" max="2514" width="3" style="167" customWidth="1"/>
-    <col min="2515" max="2515" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2516" max="2516" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2517" max="2518" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="2519" max="2519" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2520" max="2523" width="8.796875" style="167"/>
-    <col min="2524" max="2524" width="11.19921875" style="167" customWidth="1"/>
-    <col min="2525" max="2525" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2526" max="2527" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="2528" max="2528" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2529" max="2530" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2531" max="2769" width="8.796875" style="167"/>
-    <col min="2770" max="2770" width="3" style="167" customWidth="1"/>
-    <col min="2771" max="2771" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2772" max="2772" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2773" max="2774" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="2775" max="2775" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2776" max="2779" width="8.796875" style="167"/>
-    <col min="2780" max="2780" width="11.19921875" style="167" customWidth="1"/>
-    <col min="2781" max="2781" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2782" max="2783" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="2784" max="2784" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2785" max="2786" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="2787" max="3025" width="8.796875" style="167"/>
-    <col min="3026" max="3026" width="3" style="167" customWidth="1"/>
-    <col min="3027" max="3027" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3028" max="3028" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3029" max="3030" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="3031" max="3031" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3032" max="3035" width="8.796875" style="167"/>
-    <col min="3036" max="3036" width="11.19921875" style="167" customWidth="1"/>
-    <col min="3037" max="3037" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3038" max="3039" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="3040" max="3040" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3041" max="3042" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3043" max="3281" width="8.796875" style="167"/>
-    <col min="3282" max="3282" width="3" style="167" customWidth="1"/>
-    <col min="3283" max="3283" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3284" max="3284" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3285" max="3286" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="3287" max="3287" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3288" max="3291" width="8.796875" style="167"/>
-    <col min="3292" max="3292" width="11.19921875" style="167" customWidth="1"/>
-    <col min="3293" max="3293" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3294" max="3295" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="3296" max="3296" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3297" max="3298" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3299" max="3537" width="8.796875" style="167"/>
-    <col min="3538" max="3538" width="3" style="167" customWidth="1"/>
-    <col min="3539" max="3539" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3540" max="3540" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3541" max="3542" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="3543" max="3543" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3544" max="3547" width="8.796875" style="167"/>
-    <col min="3548" max="3548" width="11.19921875" style="167" customWidth="1"/>
-    <col min="3549" max="3549" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3550" max="3551" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="3552" max="3552" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3553" max="3554" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3555" max="3793" width="8.796875" style="167"/>
-    <col min="3794" max="3794" width="3" style="167" customWidth="1"/>
-    <col min="3795" max="3795" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3796" max="3796" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3797" max="3798" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="3799" max="3799" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3800" max="3803" width="8.796875" style="167"/>
-    <col min="3804" max="3804" width="11.19921875" style="167" customWidth="1"/>
-    <col min="3805" max="3805" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3806" max="3807" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="3808" max="3808" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3809" max="3810" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="3811" max="4049" width="8.796875" style="167"/>
-    <col min="4050" max="4050" width="3" style="167" customWidth="1"/>
-    <col min="4051" max="4051" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4052" max="4052" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4053" max="4054" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="4055" max="4055" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4056" max="4059" width="8.796875" style="167"/>
-    <col min="4060" max="4060" width="11.19921875" style="167" customWidth="1"/>
-    <col min="4061" max="4061" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4062" max="4063" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="4064" max="4064" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4065" max="4066" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4067" max="4305" width="8.796875" style="167"/>
-    <col min="4306" max="4306" width="3" style="167" customWidth="1"/>
-    <col min="4307" max="4307" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4308" max="4308" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4309" max="4310" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="4311" max="4311" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4312" max="4315" width="8.796875" style="167"/>
-    <col min="4316" max="4316" width="11.19921875" style="167" customWidth="1"/>
-    <col min="4317" max="4317" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4318" max="4319" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="4320" max="4320" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4321" max="4322" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4323" max="4561" width="8.796875" style="167"/>
-    <col min="4562" max="4562" width="3" style="167" customWidth="1"/>
-    <col min="4563" max="4563" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4564" max="4564" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4565" max="4566" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="4567" max="4567" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4568" max="4571" width="8.796875" style="167"/>
-    <col min="4572" max="4572" width="11.19921875" style="167" customWidth="1"/>
-    <col min="4573" max="4573" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4574" max="4575" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="4576" max="4576" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4577" max="4578" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4579" max="4817" width="8.796875" style="167"/>
-    <col min="4818" max="4818" width="3" style="167" customWidth="1"/>
-    <col min="4819" max="4819" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4820" max="4820" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4821" max="4822" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="4823" max="4823" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4824" max="4827" width="8.796875" style="167"/>
-    <col min="4828" max="4828" width="11.19921875" style="167" customWidth="1"/>
-    <col min="4829" max="4829" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4830" max="4831" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="4832" max="4832" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4833" max="4834" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="4835" max="5073" width="8.796875" style="167"/>
-    <col min="5074" max="5074" width="3" style="167" customWidth="1"/>
-    <col min="5075" max="5075" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5076" max="5076" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5077" max="5078" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="5079" max="5079" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5080" max="5083" width="8.796875" style="167"/>
-    <col min="5084" max="5084" width="11.19921875" style="167" customWidth="1"/>
-    <col min="5085" max="5085" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5086" max="5087" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="5088" max="5088" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5089" max="5090" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5091" max="5329" width="8.796875" style="167"/>
-    <col min="5330" max="5330" width="3" style="167" customWidth="1"/>
-    <col min="5331" max="5331" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5332" max="5332" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5333" max="5334" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="5335" max="5335" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5336" max="5339" width="8.796875" style="167"/>
-    <col min="5340" max="5340" width="11.19921875" style="167" customWidth="1"/>
-    <col min="5341" max="5341" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5342" max="5343" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="5344" max="5344" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5345" max="5346" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5347" max="5585" width="8.796875" style="167"/>
-    <col min="5586" max="5586" width="3" style="167" customWidth="1"/>
-    <col min="5587" max="5587" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5588" max="5588" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5589" max="5590" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="5591" max="5591" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5592" max="5595" width="8.796875" style="167"/>
-    <col min="5596" max="5596" width="11.19921875" style="167" customWidth="1"/>
-    <col min="5597" max="5597" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5598" max="5599" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="5600" max="5600" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5601" max="5602" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5603" max="5841" width="8.796875" style="167"/>
-    <col min="5842" max="5842" width="3" style="167" customWidth="1"/>
-    <col min="5843" max="5843" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5844" max="5844" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5845" max="5846" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="5847" max="5847" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5848" max="5851" width="8.796875" style="167"/>
-    <col min="5852" max="5852" width="11.19921875" style="167" customWidth="1"/>
-    <col min="5853" max="5853" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5854" max="5855" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="5856" max="5856" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5857" max="5858" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="5859" max="6097" width="8.796875" style="167"/>
-    <col min="6098" max="6098" width="3" style="167" customWidth="1"/>
-    <col min="6099" max="6099" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6100" max="6100" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6101" max="6102" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="6103" max="6103" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6104" max="6107" width="8.796875" style="167"/>
-    <col min="6108" max="6108" width="11.19921875" style="167" customWidth="1"/>
-    <col min="6109" max="6109" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6110" max="6111" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="6112" max="6112" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6113" max="6114" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6115" max="6353" width="8.796875" style="167"/>
-    <col min="6354" max="6354" width="3" style="167" customWidth="1"/>
-    <col min="6355" max="6355" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6356" max="6356" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6357" max="6358" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="6359" max="6359" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6360" max="6363" width="8.796875" style="167"/>
-    <col min="6364" max="6364" width="11.19921875" style="167" customWidth="1"/>
-    <col min="6365" max="6365" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6366" max="6367" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="6368" max="6368" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6369" max="6370" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6371" max="6609" width="8.796875" style="167"/>
-    <col min="6610" max="6610" width="3" style="167" customWidth="1"/>
-    <col min="6611" max="6611" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6612" max="6612" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6613" max="6614" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="6615" max="6615" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6616" max="6619" width="8.796875" style="167"/>
-    <col min="6620" max="6620" width="11.19921875" style="167" customWidth="1"/>
-    <col min="6621" max="6621" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6622" max="6623" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="6624" max="6624" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6625" max="6626" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6627" max="6865" width="8.796875" style="167"/>
-    <col min="6866" max="6866" width="3" style="167" customWidth="1"/>
-    <col min="6867" max="6867" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6868" max="6868" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6869" max="6870" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="6871" max="6871" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6872" max="6875" width="8.796875" style="167"/>
-    <col min="6876" max="6876" width="11.19921875" style="167" customWidth="1"/>
-    <col min="6877" max="6877" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6878" max="6879" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="6880" max="6880" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6881" max="6882" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="6883" max="7121" width="8.796875" style="167"/>
-    <col min="7122" max="7122" width="3" style="167" customWidth="1"/>
-    <col min="7123" max="7123" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7124" max="7124" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7125" max="7126" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="7127" max="7127" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7128" max="7131" width="8.796875" style="167"/>
-    <col min="7132" max="7132" width="11.19921875" style="167" customWidth="1"/>
-    <col min="7133" max="7133" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7134" max="7135" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="7136" max="7136" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7137" max="7138" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7139" max="7377" width="8.796875" style="167"/>
-    <col min="7378" max="7378" width="3" style="167" customWidth="1"/>
-    <col min="7379" max="7379" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7380" max="7380" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7381" max="7382" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="7383" max="7383" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7384" max="7387" width="8.796875" style="167"/>
-    <col min="7388" max="7388" width="11.19921875" style="167" customWidth="1"/>
-    <col min="7389" max="7389" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7390" max="7391" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="7392" max="7392" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7393" max="7394" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7395" max="7633" width="8.796875" style="167"/>
-    <col min="7634" max="7634" width="3" style="167" customWidth="1"/>
-    <col min="7635" max="7635" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7636" max="7636" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7637" max="7638" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="7639" max="7639" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7640" max="7643" width="8.796875" style="167"/>
-    <col min="7644" max="7644" width="11.19921875" style="167" customWidth="1"/>
-    <col min="7645" max="7645" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7646" max="7647" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="7648" max="7648" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7649" max="7650" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7651" max="7889" width="8.796875" style="167"/>
-    <col min="7890" max="7890" width="3" style="167" customWidth="1"/>
-    <col min="7891" max="7891" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7892" max="7892" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7893" max="7894" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="7895" max="7895" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7896" max="7899" width="8.796875" style="167"/>
-    <col min="7900" max="7900" width="11.19921875" style="167" customWidth="1"/>
-    <col min="7901" max="7901" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7902" max="7903" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="7904" max="7904" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7905" max="7906" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="7907" max="8145" width="8.796875" style="167"/>
-    <col min="8146" max="8146" width="3" style="167" customWidth="1"/>
-    <col min="8147" max="8147" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8148" max="8148" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8149" max="8150" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="8151" max="8151" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8152" max="8155" width="8.796875" style="167"/>
-    <col min="8156" max="8156" width="11.19921875" style="167" customWidth="1"/>
-    <col min="8157" max="8157" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8158" max="8159" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="8160" max="8160" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8161" max="8162" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8163" max="8401" width="8.796875" style="167"/>
-    <col min="8402" max="8402" width="3" style="167" customWidth="1"/>
-    <col min="8403" max="8403" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8404" max="8404" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8405" max="8406" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="8407" max="8407" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8408" max="8411" width="8.796875" style="167"/>
-    <col min="8412" max="8412" width="11.19921875" style="167" customWidth="1"/>
-    <col min="8413" max="8413" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8414" max="8415" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="8416" max="8416" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8417" max="8418" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8419" max="8657" width="8.796875" style="167"/>
-    <col min="8658" max="8658" width="3" style="167" customWidth="1"/>
-    <col min="8659" max="8659" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8660" max="8660" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8661" max="8662" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="8663" max="8663" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8664" max="8667" width="8.796875" style="167"/>
-    <col min="8668" max="8668" width="11.19921875" style="167" customWidth="1"/>
-    <col min="8669" max="8669" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8670" max="8671" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="8672" max="8672" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8673" max="8674" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8675" max="8913" width="8.796875" style="167"/>
-    <col min="8914" max="8914" width="3" style="167" customWidth="1"/>
-    <col min="8915" max="8915" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8916" max="8916" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8917" max="8918" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="8919" max="8919" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8920" max="8923" width="8.796875" style="167"/>
-    <col min="8924" max="8924" width="11.19921875" style="167" customWidth="1"/>
-    <col min="8925" max="8925" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8926" max="8927" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="8928" max="8928" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8929" max="8930" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="8931" max="9169" width="8.796875" style="167"/>
-    <col min="9170" max="9170" width="3" style="167" customWidth="1"/>
-    <col min="9171" max="9171" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9172" max="9172" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9173" max="9174" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="9175" max="9175" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9176" max="9179" width="8.796875" style="167"/>
-    <col min="9180" max="9180" width="11.19921875" style="167" customWidth="1"/>
-    <col min="9181" max="9181" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9182" max="9183" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="9184" max="9184" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9185" max="9186" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9187" max="9425" width="8.796875" style="167"/>
-    <col min="9426" max="9426" width="3" style="167" customWidth="1"/>
-    <col min="9427" max="9427" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9428" max="9428" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9429" max="9430" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="9431" max="9431" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9432" max="9435" width="8.796875" style="167"/>
-    <col min="9436" max="9436" width="11.19921875" style="167" customWidth="1"/>
-    <col min="9437" max="9437" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9438" max="9439" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="9440" max="9440" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9441" max="9442" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9443" max="9681" width="8.796875" style="167"/>
-    <col min="9682" max="9682" width="3" style="167" customWidth="1"/>
-    <col min="9683" max="9683" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9684" max="9684" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9685" max="9686" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="9687" max="9687" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9688" max="9691" width="8.796875" style="167"/>
-    <col min="9692" max="9692" width="11.19921875" style="167" customWidth="1"/>
-    <col min="9693" max="9693" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9694" max="9695" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="9696" max="9696" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9697" max="9698" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9699" max="9937" width="8.796875" style="167"/>
-    <col min="9938" max="9938" width="3" style="167" customWidth="1"/>
-    <col min="9939" max="9939" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9940" max="9940" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9941" max="9942" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="9943" max="9943" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9944" max="9947" width="8.796875" style="167"/>
-    <col min="9948" max="9948" width="11.19921875" style="167" customWidth="1"/>
-    <col min="9949" max="9949" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9950" max="9951" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="9952" max="9952" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9953" max="9954" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="9955" max="10193" width="8.796875" style="167"/>
-    <col min="10194" max="10194" width="3" style="167" customWidth="1"/>
-    <col min="10195" max="10195" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10196" max="10196" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10197" max="10198" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="10199" max="10199" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10200" max="10203" width="8.796875" style="167"/>
-    <col min="10204" max="10204" width="11.19921875" style="167" customWidth="1"/>
-    <col min="10205" max="10205" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10206" max="10207" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="10208" max="10208" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10209" max="10210" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10211" max="10449" width="8.796875" style="167"/>
-    <col min="10450" max="10450" width="3" style="167" customWidth="1"/>
-    <col min="10451" max="10451" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10452" max="10452" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10453" max="10454" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="10455" max="10455" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10456" max="10459" width="8.796875" style="167"/>
-    <col min="10460" max="10460" width="11.19921875" style="167" customWidth="1"/>
-    <col min="10461" max="10461" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10462" max="10463" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="10464" max="10464" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10465" max="10466" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10467" max="10705" width="8.796875" style="167"/>
-    <col min="10706" max="10706" width="3" style="167" customWidth="1"/>
-    <col min="10707" max="10707" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10708" max="10708" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10709" max="10710" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="10711" max="10711" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10712" max="10715" width="8.796875" style="167"/>
-    <col min="10716" max="10716" width="11.19921875" style="167" customWidth="1"/>
-    <col min="10717" max="10717" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10718" max="10719" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="10720" max="10720" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10721" max="10722" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10723" max="10961" width="8.796875" style="167"/>
-    <col min="10962" max="10962" width="3" style="167" customWidth="1"/>
-    <col min="10963" max="10963" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10964" max="10964" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10965" max="10966" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="10967" max="10967" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10968" max="10971" width="8.796875" style="167"/>
-    <col min="10972" max="10972" width="11.19921875" style="167" customWidth="1"/>
-    <col min="10973" max="10973" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10974" max="10975" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="10976" max="10976" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10977" max="10978" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10979" max="11217" width="8.796875" style="167"/>
-    <col min="11218" max="11218" width="3" style="167" customWidth="1"/>
-    <col min="11219" max="11219" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11220" max="11220" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11221" max="11222" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="11223" max="11223" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11224" max="11227" width="8.796875" style="167"/>
-    <col min="11228" max="11228" width="11.19921875" style="167" customWidth="1"/>
-    <col min="11229" max="11229" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11230" max="11231" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="11232" max="11232" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11233" max="11234" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11235" max="11473" width="8.796875" style="167"/>
-    <col min="11474" max="11474" width="3" style="167" customWidth="1"/>
-    <col min="11475" max="11475" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11476" max="11476" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11477" max="11478" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="11479" max="11479" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11480" max="11483" width="8.796875" style="167"/>
-    <col min="11484" max="11484" width="11.19921875" style="167" customWidth="1"/>
-    <col min="11485" max="11485" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11486" max="11487" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="11488" max="11488" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11489" max="11490" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11491" max="11729" width="8.796875" style="167"/>
-    <col min="11730" max="11730" width="3" style="167" customWidth="1"/>
-    <col min="11731" max="11731" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11732" max="11732" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11733" max="11734" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="11735" max="11735" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11736" max="11739" width="8.796875" style="167"/>
-    <col min="11740" max="11740" width="11.19921875" style="167" customWidth="1"/>
-    <col min="11741" max="11741" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11742" max="11743" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="11744" max="11744" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11745" max="11746" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11747" max="11985" width="8.796875" style="167"/>
-    <col min="11986" max="11986" width="3" style="167" customWidth="1"/>
-    <col min="11987" max="11987" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11988" max="11988" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11989" max="11990" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="11991" max="11991" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11992" max="11995" width="8.796875" style="167"/>
-    <col min="11996" max="11996" width="11.19921875" style="167" customWidth="1"/>
-    <col min="11997" max="11997" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="11998" max="11999" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="12000" max="12000" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12001" max="12002" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12003" max="12241" width="8.796875" style="167"/>
-    <col min="12242" max="12242" width="3" style="167" customWidth="1"/>
-    <col min="12243" max="12243" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12244" max="12244" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12245" max="12246" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="12247" max="12247" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12248" max="12251" width="8.796875" style="167"/>
-    <col min="12252" max="12252" width="11.19921875" style="167" customWidth="1"/>
-    <col min="12253" max="12253" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12254" max="12255" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="12256" max="12256" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12257" max="12258" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12259" max="12497" width="8.796875" style="167"/>
-    <col min="12498" max="12498" width="3" style="167" customWidth="1"/>
-    <col min="12499" max="12499" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12500" max="12500" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12501" max="12502" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="12503" max="12503" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12504" max="12507" width="8.796875" style="167"/>
-    <col min="12508" max="12508" width="11.19921875" style="167" customWidth="1"/>
-    <col min="12509" max="12509" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12510" max="12511" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="12512" max="12512" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12513" max="12514" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12515" max="12753" width="8.796875" style="167"/>
-    <col min="12754" max="12754" width="3" style="167" customWidth="1"/>
-    <col min="12755" max="12755" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12756" max="12756" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12757" max="12758" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="12759" max="12759" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12760" max="12763" width="8.796875" style="167"/>
-    <col min="12764" max="12764" width="11.19921875" style="167" customWidth="1"/>
-    <col min="12765" max="12765" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12766" max="12767" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="12768" max="12768" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12769" max="12770" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="12771" max="13009" width="8.796875" style="167"/>
-    <col min="13010" max="13010" width="3" style="167" customWidth="1"/>
-    <col min="13011" max="13011" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13012" max="13012" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13013" max="13014" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="13015" max="13015" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13016" max="13019" width="8.796875" style="167"/>
-    <col min="13020" max="13020" width="11.19921875" style="167" customWidth="1"/>
-    <col min="13021" max="13021" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13022" max="13023" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="13024" max="13024" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13025" max="13026" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13027" max="13265" width="8.796875" style="167"/>
-    <col min="13266" max="13266" width="3" style="167" customWidth="1"/>
-    <col min="13267" max="13267" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13268" max="13268" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13269" max="13270" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="13271" max="13271" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13272" max="13275" width="8.796875" style="167"/>
-    <col min="13276" max="13276" width="11.19921875" style="167" customWidth="1"/>
-    <col min="13277" max="13277" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13278" max="13279" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="13280" max="13280" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13281" max="13282" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13283" max="13521" width="8.796875" style="167"/>
-    <col min="13522" max="13522" width="3" style="167" customWidth="1"/>
-    <col min="13523" max="13523" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13524" max="13524" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13525" max="13526" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="13527" max="13527" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13528" max="13531" width="8.796875" style="167"/>
-    <col min="13532" max="13532" width="11.19921875" style="167" customWidth="1"/>
-    <col min="13533" max="13533" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13534" max="13535" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="13536" max="13536" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13537" max="13538" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13539" max="13777" width="8.796875" style="167"/>
-    <col min="13778" max="13778" width="3" style="167" customWidth="1"/>
-    <col min="13779" max="13779" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13780" max="13780" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13781" max="13782" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="13783" max="13783" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13784" max="13787" width="8.796875" style="167"/>
-    <col min="13788" max="13788" width="11.19921875" style="167" customWidth="1"/>
-    <col min="13789" max="13789" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13790" max="13791" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="13792" max="13792" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13793" max="13794" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13795" max="14033" width="8.796875" style="167"/>
-    <col min="14034" max="14034" width="3" style="167" customWidth="1"/>
-    <col min="14035" max="14035" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14036" max="14036" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14037" max="14038" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="14039" max="14039" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14040" max="14043" width="8.796875" style="167"/>
-    <col min="14044" max="14044" width="11.19921875" style="167" customWidth="1"/>
-    <col min="14045" max="14045" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14046" max="14047" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="14048" max="14048" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14049" max="14050" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14051" max="14289" width="8.796875" style="167"/>
-    <col min="14290" max="14290" width="3" style="167" customWidth="1"/>
-    <col min="14291" max="14291" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14292" max="14292" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14293" max="14294" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="14295" max="14295" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14296" max="14299" width="8.796875" style="167"/>
-    <col min="14300" max="14300" width="11.19921875" style="167" customWidth="1"/>
-    <col min="14301" max="14301" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14302" max="14303" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="14304" max="14304" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14305" max="14306" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14307" max="14545" width="8.796875" style="167"/>
-    <col min="14546" max="14546" width="3" style="167" customWidth="1"/>
-    <col min="14547" max="14547" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14548" max="14548" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14549" max="14550" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="14551" max="14551" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14552" max="14555" width="8.796875" style="167"/>
-    <col min="14556" max="14556" width="11.19921875" style="167" customWidth="1"/>
-    <col min="14557" max="14557" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14558" max="14559" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="14560" max="14560" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14561" max="14562" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14563" max="14801" width="8.796875" style="167"/>
-    <col min="14802" max="14802" width="3" style="167" customWidth="1"/>
-    <col min="14803" max="14803" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14804" max="14804" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14805" max="14806" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="14807" max="14807" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14808" max="14811" width="8.796875" style="167"/>
-    <col min="14812" max="14812" width="11.19921875" style="167" customWidth="1"/>
-    <col min="14813" max="14813" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14814" max="14815" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="14816" max="14816" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14817" max="14818" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="14819" max="15057" width="8.796875" style="167"/>
-    <col min="15058" max="15058" width="3" style="167" customWidth="1"/>
-    <col min="15059" max="15059" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15060" max="15060" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15061" max="15062" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="15063" max="15063" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15064" max="15067" width="8.796875" style="167"/>
-    <col min="15068" max="15068" width="11.19921875" style="167" customWidth="1"/>
-    <col min="15069" max="15069" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15070" max="15071" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="15072" max="15072" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15073" max="15074" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15075" max="15313" width="8.796875" style="167"/>
-    <col min="15314" max="15314" width="3" style="167" customWidth="1"/>
-    <col min="15315" max="15315" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15316" max="15316" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15317" max="15318" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="15319" max="15319" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15320" max="15323" width="8.796875" style="167"/>
-    <col min="15324" max="15324" width="11.19921875" style="167" customWidth="1"/>
-    <col min="15325" max="15325" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15326" max="15327" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="15328" max="15328" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15329" max="15330" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15331" max="15569" width="8.796875" style="167"/>
-    <col min="15570" max="15570" width="3" style="167" customWidth="1"/>
-    <col min="15571" max="15571" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15572" max="15572" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15573" max="15574" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="15575" max="15575" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15576" max="15579" width="8.796875" style="167"/>
-    <col min="15580" max="15580" width="11.19921875" style="167" customWidth="1"/>
-    <col min="15581" max="15581" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15582" max="15583" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="15584" max="15584" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15585" max="15586" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15587" max="15825" width="8.796875" style="167"/>
-    <col min="15826" max="15826" width="3" style="167" customWidth="1"/>
-    <col min="15827" max="15827" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15828" max="15828" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15829" max="15830" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="15831" max="15831" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15832" max="15835" width="8.796875" style="167"/>
-    <col min="15836" max="15836" width="11.19921875" style="167" customWidth="1"/>
-    <col min="15837" max="15837" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15838" max="15839" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="15840" max="15840" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15841" max="15842" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="15843" max="16081" width="8.796875" style="167"/>
-    <col min="16082" max="16082" width="3" style="167" customWidth="1"/>
-    <col min="16083" max="16083" width="12.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16084" max="16084" width="9.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16085" max="16086" width="7.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="16087" max="16087" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16088" max="16091" width="8.796875" style="167"/>
-    <col min="16092" max="16092" width="11.19921875" style="167" customWidth="1"/>
-    <col min="16093" max="16093" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16094" max="16095" width="8" style="167" bestFit="1" customWidth="1"/>
-    <col min="16096" max="16096" width="4.69921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16097" max="16098" width="11.19921875" style="167" bestFit="1" customWidth="1"/>
-    <col min="16099" max="16379" width="8.796875" style="167"/>
-    <col min="16380" max="16384" width="9" style="167" customWidth="1"/>
+    <col min="13" max="209" width="8.796875" style="136"/>
+    <col min="210" max="210" width="3" style="136" customWidth="1"/>
+    <col min="211" max="211" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="213" max="214" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="216" max="219" width="8.796875" style="136"/>
+    <col min="220" max="220" width="11.19921875" style="136" customWidth="1"/>
+    <col min="221" max="221" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="222" max="223" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="225" max="226" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="227" max="465" width="8.796875" style="136"/>
+    <col min="466" max="466" width="3" style="136" customWidth="1"/>
+    <col min="467" max="467" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="469" max="470" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="472" max="475" width="8.796875" style="136"/>
+    <col min="476" max="476" width="11.19921875" style="136" customWidth="1"/>
+    <col min="477" max="477" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="478" max="479" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="481" max="482" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="483" max="721" width="8.796875" style="136"/>
+    <col min="722" max="722" width="3" style="136" customWidth="1"/>
+    <col min="723" max="723" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="724" max="724" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="725" max="726" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="727" max="727" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="728" max="731" width="8.796875" style="136"/>
+    <col min="732" max="732" width="11.19921875" style="136" customWidth="1"/>
+    <col min="733" max="733" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="734" max="735" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="736" max="736" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="737" max="738" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="739" max="977" width="8.796875" style="136"/>
+    <col min="978" max="978" width="3" style="136" customWidth="1"/>
+    <col min="979" max="979" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="980" max="980" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="981" max="982" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="983" max="983" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="984" max="987" width="8.796875" style="136"/>
+    <col min="988" max="988" width="11.19921875" style="136" customWidth="1"/>
+    <col min="989" max="989" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="990" max="991" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="992" max="992" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="993" max="994" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="995" max="1233" width="8.796875" style="136"/>
+    <col min="1234" max="1234" width="3" style="136" customWidth="1"/>
+    <col min="1235" max="1235" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1236" max="1236" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1237" max="1238" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="1239" max="1239" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1240" max="1243" width="8.796875" style="136"/>
+    <col min="1244" max="1244" width="11.19921875" style="136" customWidth="1"/>
+    <col min="1245" max="1245" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1246" max="1247" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="1248" max="1248" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1249" max="1250" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1251" max="1489" width="8.796875" style="136"/>
+    <col min="1490" max="1490" width="3" style="136" customWidth="1"/>
+    <col min="1491" max="1491" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1492" max="1492" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1493" max="1494" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="1495" max="1495" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1496" max="1499" width="8.796875" style="136"/>
+    <col min="1500" max="1500" width="11.19921875" style="136" customWidth="1"/>
+    <col min="1501" max="1501" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1502" max="1503" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="1504" max="1504" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1505" max="1506" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1507" max="1745" width="8.796875" style="136"/>
+    <col min="1746" max="1746" width="3" style="136" customWidth="1"/>
+    <col min="1747" max="1747" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1748" max="1748" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1749" max="1750" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="1751" max="1751" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1752" max="1755" width="8.796875" style="136"/>
+    <col min="1756" max="1756" width="11.19921875" style="136" customWidth="1"/>
+    <col min="1757" max="1757" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1758" max="1759" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="1760" max="1760" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1761" max="1762" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="1763" max="2001" width="8.796875" style="136"/>
+    <col min="2002" max="2002" width="3" style="136" customWidth="1"/>
+    <col min="2003" max="2003" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2004" max="2004" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2005" max="2006" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="2007" max="2007" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2008" max="2011" width="8.796875" style="136"/>
+    <col min="2012" max="2012" width="11.19921875" style="136" customWidth="1"/>
+    <col min="2013" max="2013" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2014" max="2015" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="2016" max="2016" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2017" max="2018" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2019" max="2257" width="8.796875" style="136"/>
+    <col min="2258" max="2258" width="3" style="136" customWidth="1"/>
+    <col min="2259" max="2259" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2260" max="2260" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2261" max="2262" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="2263" max="2263" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2264" max="2267" width="8.796875" style="136"/>
+    <col min="2268" max="2268" width="11.19921875" style="136" customWidth="1"/>
+    <col min="2269" max="2269" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2270" max="2271" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="2272" max="2272" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2273" max="2274" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2275" max="2513" width="8.796875" style="136"/>
+    <col min="2514" max="2514" width="3" style="136" customWidth="1"/>
+    <col min="2515" max="2515" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2516" max="2516" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2517" max="2518" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="2519" max="2519" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2520" max="2523" width="8.796875" style="136"/>
+    <col min="2524" max="2524" width="11.19921875" style="136" customWidth="1"/>
+    <col min="2525" max="2525" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2526" max="2527" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="2528" max="2528" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2529" max="2530" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2531" max="2769" width="8.796875" style="136"/>
+    <col min="2770" max="2770" width="3" style="136" customWidth="1"/>
+    <col min="2771" max="2771" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2772" max="2772" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2773" max="2774" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="2775" max="2775" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2776" max="2779" width="8.796875" style="136"/>
+    <col min="2780" max="2780" width="11.19921875" style="136" customWidth="1"/>
+    <col min="2781" max="2781" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2782" max="2783" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="2784" max="2784" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2785" max="2786" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="2787" max="3025" width="8.796875" style="136"/>
+    <col min="3026" max="3026" width="3" style="136" customWidth="1"/>
+    <col min="3027" max="3027" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3028" max="3028" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3029" max="3030" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="3031" max="3031" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3032" max="3035" width="8.796875" style="136"/>
+    <col min="3036" max="3036" width="11.19921875" style="136" customWidth="1"/>
+    <col min="3037" max="3037" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3038" max="3039" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="3040" max="3040" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3041" max="3042" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3043" max="3281" width="8.796875" style="136"/>
+    <col min="3282" max="3282" width="3" style="136" customWidth="1"/>
+    <col min="3283" max="3283" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3284" max="3284" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3285" max="3286" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="3287" max="3287" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3288" max="3291" width="8.796875" style="136"/>
+    <col min="3292" max="3292" width="11.19921875" style="136" customWidth="1"/>
+    <col min="3293" max="3293" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3294" max="3295" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="3296" max="3296" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3297" max="3298" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3299" max="3537" width="8.796875" style="136"/>
+    <col min="3538" max="3538" width="3" style="136" customWidth="1"/>
+    <col min="3539" max="3539" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3540" max="3540" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3541" max="3542" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="3543" max="3543" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3544" max="3547" width="8.796875" style="136"/>
+    <col min="3548" max="3548" width="11.19921875" style="136" customWidth="1"/>
+    <col min="3549" max="3549" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3550" max="3551" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="3552" max="3552" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3553" max="3554" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3555" max="3793" width="8.796875" style="136"/>
+    <col min="3794" max="3794" width="3" style="136" customWidth="1"/>
+    <col min="3795" max="3795" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3796" max="3796" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3797" max="3798" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="3799" max="3799" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3800" max="3803" width="8.796875" style="136"/>
+    <col min="3804" max="3804" width="11.19921875" style="136" customWidth="1"/>
+    <col min="3805" max="3805" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3806" max="3807" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="3808" max="3808" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3809" max="3810" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="3811" max="4049" width="8.796875" style="136"/>
+    <col min="4050" max="4050" width="3" style="136" customWidth="1"/>
+    <col min="4051" max="4051" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4052" max="4052" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4053" max="4054" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="4055" max="4055" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4056" max="4059" width="8.796875" style="136"/>
+    <col min="4060" max="4060" width="11.19921875" style="136" customWidth="1"/>
+    <col min="4061" max="4061" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4062" max="4063" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="4064" max="4064" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4065" max="4066" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4067" max="4305" width="8.796875" style="136"/>
+    <col min="4306" max="4306" width="3" style="136" customWidth="1"/>
+    <col min="4307" max="4307" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4308" max="4308" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4309" max="4310" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="4311" max="4311" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4312" max="4315" width="8.796875" style="136"/>
+    <col min="4316" max="4316" width="11.19921875" style="136" customWidth="1"/>
+    <col min="4317" max="4317" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4318" max="4319" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="4320" max="4320" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4321" max="4322" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4323" max="4561" width="8.796875" style="136"/>
+    <col min="4562" max="4562" width="3" style="136" customWidth="1"/>
+    <col min="4563" max="4563" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4564" max="4564" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4565" max="4566" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="4567" max="4567" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4568" max="4571" width="8.796875" style="136"/>
+    <col min="4572" max="4572" width="11.19921875" style="136" customWidth="1"/>
+    <col min="4573" max="4573" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4574" max="4575" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="4576" max="4576" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4577" max="4578" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4579" max="4817" width="8.796875" style="136"/>
+    <col min="4818" max="4818" width="3" style="136" customWidth="1"/>
+    <col min="4819" max="4819" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4820" max="4820" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4821" max="4822" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="4823" max="4823" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4824" max="4827" width="8.796875" style="136"/>
+    <col min="4828" max="4828" width="11.19921875" style="136" customWidth="1"/>
+    <col min="4829" max="4829" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4830" max="4831" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="4832" max="4832" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4833" max="4834" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="4835" max="5073" width="8.796875" style="136"/>
+    <col min="5074" max="5074" width="3" style="136" customWidth="1"/>
+    <col min="5075" max="5075" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5076" max="5076" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5077" max="5078" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="5079" max="5079" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5080" max="5083" width="8.796875" style="136"/>
+    <col min="5084" max="5084" width="11.19921875" style="136" customWidth="1"/>
+    <col min="5085" max="5085" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5086" max="5087" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="5088" max="5088" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5089" max="5090" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5091" max="5329" width="8.796875" style="136"/>
+    <col min="5330" max="5330" width="3" style="136" customWidth="1"/>
+    <col min="5331" max="5331" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5332" max="5332" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5333" max="5334" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="5335" max="5335" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5336" max="5339" width="8.796875" style="136"/>
+    <col min="5340" max="5340" width="11.19921875" style="136" customWidth="1"/>
+    <col min="5341" max="5341" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5342" max="5343" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="5344" max="5344" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5345" max="5346" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5347" max="5585" width="8.796875" style="136"/>
+    <col min="5586" max="5586" width="3" style="136" customWidth="1"/>
+    <col min="5587" max="5587" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5588" max="5588" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5589" max="5590" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="5591" max="5591" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5592" max="5595" width="8.796875" style="136"/>
+    <col min="5596" max="5596" width="11.19921875" style="136" customWidth="1"/>
+    <col min="5597" max="5597" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5598" max="5599" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="5600" max="5600" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5601" max="5602" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5603" max="5841" width="8.796875" style="136"/>
+    <col min="5842" max="5842" width="3" style="136" customWidth="1"/>
+    <col min="5843" max="5843" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5844" max="5844" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5845" max="5846" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="5847" max="5847" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5848" max="5851" width="8.796875" style="136"/>
+    <col min="5852" max="5852" width="11.19921875" style="136" customWidth="1"/>
+    <col min="5853" max="5853" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5854" max="5855" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="5856" max="5856" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5857" max="5858" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="5859" max="6097" width="8.796875" style="136"/>
+    <col min="6098" max="6098" width="3" style="136" customWidth="1"/>
+    <col min="6099" max="6099" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6100" max="6100" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6101" max="6102" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="6103" max="6103" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6104" max="6107" width="8.796875" style="136"/>
+    <col min="6108" max="6108" width="11.19921875" style="136" customWidth="1"/>
+    <col min="6109" max="6109" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6110" max="6111" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="6112" max="6112" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6113" max="6114" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6115" max="6353" width="8.796875" style="136"/>
+    <col min="6354" max="6354" width="3" style="136" customWidth="1"/>
+    <col min="6355" max="6355" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6356" max="6356" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6357" max="6358" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="6359" max="6359" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6360" max="6363" width="8.796875" style="136"/>
+    <col min="6364" max="6364" width="11.19921875" style="136" customWidth="1"/>
+    <col min="6365" max="6365" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6366" max="6367" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="6368" max="6368" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6369" max="6370" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6371" max="6609" width="8.796875" style="136"/>
+    <col min="6610" max="6610" width="3" style="136" customWidth="1"/>
+    <col min="6611" max="6611" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6612" max="6612" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6613" max="6614" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="6615" max="6615" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6616" max="6619" width="8.796875" style="136"/>
+    <col min="6620" max="6620" width="11.19921875" style="136" customWidth="1"/>
+    <col min="6621" max="6621" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6622" max="6623" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="6624" max="6624" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6625" max="6626" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6627" max="6865" width="8.796875" style="136"/>
+    <col min="6866" max="6866" width="3" style="136" customWidth="1"/>
+    <col min="6867" max="6867" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6868" max="6868" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6869" max="6870" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="6871" max="6871" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6872" max="6875" width="8.796875" style="136"/>
+    <col min="6876" max="6876" width="11.19921875" style="136" customWidth="1"/>
+    <col min="6877" max="6877" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6878" max="6879" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="6880" max="6880" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6881" max="6882" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="6883" max="7121" width="8.796875" style="136"/>
+    <col min="7122" max="7122" width="3" style="136" customWidth="1"/>
+    <col min="7123" max="7123" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7124" max="7124" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7125" max="7126" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="7127" max="7127" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7128" max="7131" width="8.796875" style="136"/>
+    <col min="7132" max="7132" width="11.19921875" style="136" customWidth="1"/>
+    <col min="7133" max="7133" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7134" max="7135" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="7136" max="7136" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7137" max="7138" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7139" max="7377" width="8.796875" style="136"/>
+    <col min="7378" max="7378" width="3" style="136" customWidth="1"/>
+    <col min="7379" max="7379" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7380" max="7380" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7381" max="7382" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="7383" max="7383" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7384" max="7387" width="8.796875" style="136"/>
+    <col min="7388" max="7388" width="11.19921875" style="136" customWidth="1"/>
+    <col min="7389" max="7389" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7390" max="7391" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="7392" max="7392" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7393" max="7394" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7395" max="7633" width="8.796875" style="136"/>
+    <col min="7634" max="7634" width="3" style="136" customWidth="1"/>
+    <col min="7635" max="7635" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7636" max="7636" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7637" max="7638" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="7639" max="7639" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7640" max="7643" width="8.796875" style="136"/>
+    <col min="7644" max="7644" width="11.19921875" style="136" customWidth="1"/>
+    <col min="7645" max="7645" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7646" max="7647" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="7648" max="7648" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7649" max="7650" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7651" max="7889" width="8.796875" style="136"/>
+    <col min="7890" max="7890" width="3" style="136" customWidth="1"/>
+    <col min="7891" max="7891" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7892" max="7892" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7893" max="7894" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="7895" max="7895" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7896" max="7899" width="8.796875" style="136"/>
+    <col min="7900" max="7900" width="11.19921875" style="136" customWidth="1"/>
+    <col min="7901" max="7901" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7902" max="7903" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="7904" max="7904" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7905" max="7906" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="7907" max="8145" width="8.796875" style="136"/>
+    <col min="8146" max="8146" width="3" style="136" customWidth="1"/>
+    <col min="8147" max="8147" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8148" max="8148" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8149" max="8150" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="8151" max="8151" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8152" max="8155" width="8.796875" style="136"/>
+    <col min="8156" max="8156" width="11.19921875" style="136" customWidth="1"/>
+    <col min="8157" max="8157" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8158" max="8159" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="8160" max="8160" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8161" max="8162" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8163" max="8401" width="8.796875" style="136"/>
+    <col min="8402" max="8402" width="3" style="136" customWidth="1"/>
+    <col min="8403" max="8403" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8404" max="8404" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8405" max="8406" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="8407" max="8407" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8408" max="8411" width="8.796875" style="136"/>
+    <col min="8412" max="8412" width="11.19921875" style="136" customWidth="1"/>
+    <col min="8413" max="8413" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8414" max="8415" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="8416" max="8416" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8417" max="8418" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8419" max="8657" width="8.796875" style="136"/>
+    <col min="8658" max="8658" width="3" style="136" customWidth="1"/>
+    <col min="8659" max="8659" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8660" max="8660" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8661" max="8662" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="8663" max="8663" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8664" max="8667" width="8.796875" style="136"/>
+    <col min="8668" max="8668" width="11.19921875" style="136" customWidth="1"/>
+    <col min="8669" max="8669" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8670" max="8671" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="8672" max="8672" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8673" max="8674" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8675" max="8913" width="8.796875" style="136"/>
+    <col min="8914" max="8914" width="3" style="136" customWidth="1"/>
+    <col min="8915" max="8915" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8916" max="8916" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8917" max="8918" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="8919" max="8919" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8920" max="8923" width="8.796875" style="136"/>
+    <col min="8924" max="8924" width="11.19921875" style="136" customWidth="1"/>
+    <col min="8925" max="8925" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8926" max="8927" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="8928" max="8928" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8929" max="8930" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="8931" max="9169" width="8.796875" style="136"/>
+    <col min="9170" max="9170" width="3" style="136" customWidth="1"/>
+    <col min="9171" max="9171" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9172" max="9172" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9173" max="9174" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="9175" max="9175" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9176" max="9179" width="8.796875" style="136"/>
+    <col min="9180" max="9180" width="11.19921875" style="136" customWidth="1"/>
+    <col min="9181" max="9181" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9182" max="9183" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="9184" max="9184" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9185" max="9186" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9187" max="9425" width="8.796875" style="136"/>
+    <col min="9426" max="9426" width="3" style="136" customWidth="1"/>
+    <col min="9427" max="9427" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9428" max="9428" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9429" max="9430" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="9431" max="9431" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9432" max="9435" width="8.796875" style="136"/>
+    <col min="9436" max="9436" width="11.19921875" style="136" customWidth="1"/>
+    <col min="9437" max="9437" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9438" max="9439" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="9440" max="9440" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9441" max="9442" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9443" max="9681" width="8.796875" style="136"/>
+    <col min="9682" max="9682" width="3" style="136" customWidth="1"/>
+    <col min="9683" max="9683" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9684" max="9684" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9685" max="9686" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="9687" max="9687" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9688" max="9691" width="8.796875" style="136"/>
+    <col min="9692" max="9692" width="11.19921875" style="136" customWidth="1"/>
+    <col min="9693" max="9693" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9694" max="9695" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="9696" max="9696" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9697" max="9698" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9699" max="9937" width="8.796875" style="136"/>
+    <col min="9938" max="9938" width="3" style="136" customWidth="1"/>
+    <col min="9939" max="9939" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9940" max="9940" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9941" max="9942" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="9943" max="9943" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9944" max="9947" width="8.796875" style="136"/>
+    <col min="9948" max="9948" width="11.19921875" style="136" customWidth="1"/>
+    <col min="9949" max="9949" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9950" max="9951" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="9952" max="9952" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9953" max="9954" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="9955" max="10193" width="8.796875" style="136"/>
+    <col min="10194" max="10194" width="3" style="136" customWidth="1"/>
+    <col min="10195" max="10195" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10196" max="10196" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10197" max="10198" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="10199" max="10199" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10200" max="10203" width="8.796875" style="136"/>
+    <col min="10204" max="10204" width="11.19921875" style="136" customWidth="1"/>
+    <col min="10205" max="10205" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10206" max="10207" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="10208" max="10208" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10209" max="10210" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10211" max="10449" width="8.796875" style="136"/>
+    <col min="10450" max="10450" width="3" style="136" customWidth="1"/>
+    <col min="10451" max="10451" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10452" max="10452" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10453" max="10454" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="10455" max="10455" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10456" max="10459" width="8.796875" style="136"/>
+    <col min="10460" max="10460" width="11.19921875" style="136" customWidth="1"/>
+    <col min="10461" max="10461" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10462" max="10463" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="10464" max="10464" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10465" max="10466" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10467" max="10705" width="8.796875" style="136"/>
+    <col min="10706" max="10706" width="3" style="136" customWidth="1"/>
+    <col min="10707" max="10707" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10708" max="10708" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10709" max="10710" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="10711" max="10711" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10712" max="10715" width="8.796875" style="136"/>
+    <col min="10716" max="10716" width="11.19921875" style="136" customWidth="1"/>
+    <col min="10717" max="10717" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10718" max="10719" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="10720" max="10720" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10721" max="10722" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10723" max="10961" width="8.796875" style="136"/>
+    <col min="10962" max="10962" width="3" style="136" customWidth="1"/>
+    <col min="10963" max="10963" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10964" max="10964" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10965" max="10966" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="10967" max="10967" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10968" max="10971" width="8.796875" style="136"/>
+    <col min="10972" max="10972" width="11.19921875" style="136" customWidth="1"/>
+    <col min="10973" max="10973" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10974" max="10975" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="10976" max="10976" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10977" max="10978" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="10979" max="11217" width="8.796875" style="136"/>
+    <col min="11218" max="11218" width="3" style="136" customWidth="1"/>
+    <col min="11219" max="11219" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11220" max="11220" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11221" max="11222" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="11223" max="11223" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11224" max="11227" width="8.796875" style="136"/>
+    <col min="11228" max="11228" width="11.19921875" style="136" customWidth="1"/>
+    <col min="11229" max="11229" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11230" max="11231" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="11232" max="11232" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11233" max="11234" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11235" max="11473" width="8.796875" style="136"/>
+    <col min="11474" max="11474" width="3" style="136" customWidth="1"/>
+    <col min="11475" max="11475" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11476" max="11476" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11477" max="11478" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="11479" max="11479" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11480" max="11483" width="8.796875" style="136"/>
+    <col min="11484" max="11484" width="11.19921875" style="136" customWidth="1"/>
+    <col min="11485" max="11485" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11486" max="11487" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="11488" max="11488" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11489" max="11490" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11491" max="11729" width="8.796875" style="136"/>
+    <col min="11730" max="11730" width="3" style="136" customWidth="1"/>
+    <col min="11731" max="11731" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11732" max="11732" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11733" max="11734" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="11735" max="11735" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11736" max="11739" width="8.796875" style="136"/>
+    <col min="11740" max="11740" width="11.19921875" style="136" customWidth="1"/>
+    <col min="11741" max="11741" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11742" max="11743" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="11744" max="11744" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11745" max="11746" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11747" max="11985" width="8.796875" style="136"/>
+    <col min="11986" max="11986" width="3" style="136" customWidth="1"/>
+    <col min="11987" max="11987" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11988" max="11988" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11989" max="11990" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="11991" max="11991" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11992" max="11995" width="8.796875" style="136"/>
+    <col min="11996" max="11996" width="11.19921875" style="136" customWidth="1"/>
+    <col min="11997" max="11997" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11998" max="11999" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="12000" max="12000" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12001" max="12002" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12003" max="12241" width="8.796875" style="136"/>
+    <col min="12242" max="12242" width="3" style="136" customWidth="1"/>
+    <col min="12243" max="12243" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12244" max="12244" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12245" max="12246" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="12247" max="12247" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12248" max="12251" width="8.796875" style="136"/>
+    <col min="12252" max="12252" width="11.19921875" style="136" customWidth="1"/>
+    <col min="12253" max="12253" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12254" max="12255" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="12256" max="12256" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12257" max="12258" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12259" max="12497" width="8.796875" style="136"/>
+    <col min="12498" max="12498" width="3" style="136" customWidth="1"/>
+    <col min="12499" max="12499" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12500" max="12500" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12501" max="12502" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="12503" max="12503" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12504" max="12507" width="8.796875" style="136"/>
+    <col min="12508" max="12508" width="11.19921875" style="136" customWidth="1"/>
+    <col min="12509" max="12509" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12510" max="12511" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="12512" max="12512" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12513" max="12514" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12515" max="12753" width="8.796875" style="136"/>
+    <col min="12754" max="12754" width="3" style="136" customWidth="1"/>
+    <col min="12755" max="12755" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12756" max="12756" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12757" max="12758" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="12759" max="12759" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12760" max="12763" width="8.796875" style="136"/>
+    <col min="12764" max="12764" width="11.19921875" style="136" customWidth="1"/>
+    <col min="12765" max="12765" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12766" max="12767" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="12768" max="12768" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12769" max="12770" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="12771" max="13009" width="8.796875" style="136"/>
+    <col min="13010" max="13010" width="3" style="136" customWidth="1"/>
+    <col min="13011" max="13011" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13012" max="13012" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13013" max="13014" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="13015" max="13015" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13016" max="13019" width="8.796875" style="136"/>
+    <col min="13020" max="13020" width="11.19921875" style="136" customWidth="1"/>
+    <col min="13021" max="13021" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13022" max="13023" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="13024" max="13024" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13025" max="13026" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13027" max="13265" width="8.796875" style="136"/>
+    <col min="13266" max="13266" width="3" style="136" customWidth="1"/>
+    <col min="13267" max="13267" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13268" max="13268" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13269" max="13270" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="13271" max="13271" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13272" max="13275" width="8.796875" style="136"/>
+    <col min="13276" max="13276" width="11.19921875" style="136" customWidth="1"/>
+    <col min="13277" max="13277" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13278" max="13279" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="13280" max="13280" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13281" max="13282" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13283" max="13521" width="8.796875" style="136"/>
+    <col min="13522" max="13522" width="3" style="136" customWidth="1"/>
+    <col min="13523" max="13523" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13524" max="13524" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13525" max="13526" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="13527" max="13527" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13528" max="13531" width="8.796875" style="136"/>
+    <col min="13532" max="13532" width="11.19921875" style="136" customWidth="1"/>
+    <col min="13533" max="13533" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13534" max="13535" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="13536" max="13536" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13537" max="13538" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13539" max="13777" width="8.796875" style="136"/>
+    <col min="13778" max="13778" width="3" style="136" customWidth="1"/>
+    <col min="13779" max="13779" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13780" max="13780" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13781" max="13782" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="13783" max="13783" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13784" max="13787" width="8.796875" style="136"/>
+    <col min="13788" max="13788" width="11.19921875" style="136" customWidth="1"/>
+    <col min="13789" max="13789" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13790" max="13791" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="13792" max="13792" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13793" max="13794" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="13795" max="14033" width="8.796875" style="136"/>
+    <col min="14034" max="14034" width="3" style="136" customWidth="1"/>
+    <col min="14035" max="14035" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14036" max="14036" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14037" max="14038" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="14039" max="14039" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14040" max="14043" width="8.796875" style="136"/>
+    <col min="14044" max="14044" width="11.19921875" style="136" customWidth="1"/>
+    <col min="14045" max="14045" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14046" max="14047" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="14048" max="14048" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14049" max="14050" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14051" max="14289" width="8.796875" style="136"/>
+    <col min="14290" max="14290" width="3" style="136" customWidth="1"/>
+    <col min="14291" max="14291" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14292" max="14292" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14293" max="14294" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="14295" max="14295" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14296" max="14299" width="8.796875" style="136"/>
+    <col min="14300" max="14300" width="11.19921875" style="136" customWidth="1"/>
+    <col min="14301" max="14301" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14302" max="14303" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="14304" max="14304" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14305" max="14306" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14307" max="14545" width="8.796875" style="136"/>
+    <col min="14546" max="14546" width="3" style="136" customWidth="1"/>
+    <col min="14547" max="14547" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14548" max="14548" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14549" max="14550" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="14551" max="14551" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14552" max="14555" width="8.796875" style="136"/>
+    <col min="14556" max="14556" width="11.19921875" style="136" customWidth="1"/>
+    <col min="14557" max="14557" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14558" max="14559" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="14560" max="14560" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14561" max="14562" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14563" max="14801" width="8.796875" style="136"/>
+    <col min="14802" max="14802" width="3" style="136" customWidth="1"/>
+    <col min="14803" max="14803" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14804" max="14804" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14805" max="14806" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="14807" max="14807" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14808" max="14811" width="8.796875" style="136"/>
+    <col min="14812" max="14812" width="11.19921875" style="136" customWidth="1"/>
+    <col min="14813" max="14813" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14814" max="14815" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="14816" max="14816" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14817" max="14818" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="14819" max="15057" width="8.796875" style="136"/>
+    <col min="15058" max="15058" width="3" style="136" customWidth="1"/>
+    <col min="15059" max="15059" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15060" max="15060" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15061" max="15062" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="15063" max="15063" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15064" max="15067" width="8.796875" style="136"/>
+    <col min="15068" max="15068" width="11.19921875" style="136" customWidth="1"/>
+    <col min="15069" max="15069" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15070" max="15071" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="15072" max="15072" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15073" max="15074" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15075" max="15313" width="8.796875" style="136"/>
+    <col min="15314" max="15314" width="3" style="136" customWidth="1"/>
+    <col min="15315" max="15315" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15316" max="15316" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15317" max="15318" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="15319" max="15319" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15320" max="15323" width="8.796875" style="136"/>
+    <col min="15324" max="15324" width="11.19921875" style="136" customWidth="1"/>
+    <col min="15325" max="15325" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15326" max="15327" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="15328" max="15328" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15329" max="15330" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15331" max="15569" width="8.796875" style="136"/>
+    <col min="15570" max="15570" width="3" style="136" customWidth="1"/>
+    <col min="15571" max="15571" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15572" max="15572" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15573" max="15574" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="15575" max="15575" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15576" max="15579" width="8.796875" style="136"/>
+    <col min="15580" max="15580" width="11.19921875" style="136" customWidth="1"/>
+    <col min="15581" max="15581" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15582" max="15583" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="15584" max="15584" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15585" max="15586" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15587" max="15825" width="8.796875" style="136"/>
+    <col min="15826" max="15826" width="3" style="136" customWidth="1"/>
+    <col min="15827" max="15827" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15828" max="15828" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15829" max="15830" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="15831" max="15831" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15832" max="15835" width="8.796875" style="136"/>
+    <col min="15836" max="15836" width="11.19921875" style="136" customWidth="1"/>
+    <col min="15837" max="15837" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15838" max="15839" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="15840" max="15840" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15841" max="15842" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="15843" max="16081" width="8.796875" style="136"/>
+    <col min="16082" max="16082" width="3" style="136" customWidth="1"/>
+    <col min="16083" max="16083" width="12.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16084" max="16084" width="9.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16085" max="16086" width="7.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="16087" max="16087" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16088" max="16091" width="8.796875" style="136"/>
+    <col min="16092" max="16092" width="11.19921875" style="136" customWidth="1"/>
+    <col min="16093" max="16093" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16094" max="16095" width="8" style="136" bestFit="1" customWidth="1"/>
+    <col min="16096" max="16096" width="4.69921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16097" max="16098" width="11.19921875" style="136" bestFit="1" customWidth="1"/>
+    <col min="16099" max="16379" width="8.796875" style="136"/>
+    <col min="16380" max="16384" width="9" style="136" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="190" t="s">
         <v>4255</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
       <c r="K1" s="57" t="s">
         <v>791</v>
       </c>
@@ -32323,7 +32334,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="137" t="s">
         <v>768</v>
       </c>
       <c r="B3" s="17" t="str">
@@ -32335,7 +32346,7 @@
         <v>文泰来</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="137" t="s">
         <v>769</v>
       </c>
       <c r="F3" s="14" t="str">
@@ -32350,7 +32361,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="137" t="s">
         <v>770</v>
       </c>
       <c r="B4" s="12" t="str">
@@ -32362,7 +32373,7 @@
         <v>徐天宏</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="137" t="s">
         <v>771</v>
       </c>
       <c r="F4" s="12" t="str">
@@ -32377,7 +32388,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="137" t="s">
         <v>772</v>
       </c>
       <c r="B5" s="12" t="str">
@@ -32389,7 +32400,7 @@
         <v>骆冰</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="137" t="s">
         <v>773</v>
       </c>
       <c r="F5" s="12" t="str">
@@ -32404,7 +32415,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="137" t="s">
         <v>774</v>
       </c>
       <c r="B6" s="12" t="str">
@@ -32416,7 +32427,7 @@
         <v>石双英</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="137" t="s">
         <v>775</v>
       </c>
       <c r="F6" s="12" t="str">
@@ -32439,10 +32450,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="159" t="s">
         <v>4254</v>
       </c>
-      <c r="B8" s="135"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="133"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -32559,11 +32570,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="190" t="s">
         <v>4256</v>
       </c>
-      <c r="B14" s="175"/>
-      <c r="C14" s="175"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
       <c r="K14" s="12">
         <v>110112</v>
       </c>
@@ -32581,7 +32592,7 @@
       <c r="C15" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="D15" s="171"/>
+      <c r="D15" s="138"/>
       <c r="K15" s="12">
         <v>110113</v>
       </c>
@@ -32593,7 +32604,7 @@
       <c r="A16" s="132" t="s">
         <v>782</v>
       </c>
-      <c r="B16" s="177" t="str">
+      <c r="B16" s="142" t="str">
         <f>LEFT(A16,LEN(A16)-(LENB(A16)-LEN(A16)))</f>
         <v>283</v>
       </c>
@@ -32601,13 +32612,13 @@
         <f>RIGHT(A16,LENB(A16)-LEN(A16))</f>
         <v>元</v>
       </c>
-      <c r="D16" s="169" t="s">
+      <c r="D16" s="194" t="s">
         <v>4258</v>
       </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
       <c r="K16" s="12">
         <v>110200</v>
       </c>
@@ -32627,7 +32638,7 @@
         <f t="shared" ref="C17:C18" si="5">RIGHT(A17,LENB(A17)-LEN(A17))</f>
         <v>千克</v>
       </c>
-      <c r="D17" s="171"/>
+      <c r="D17" s="138"/>
       <c r="K17" s="12">
         <v>110221</v>
       </c>
@@ -32647,7 +32658,7 @@
         <f t="shared" si="5"/>
         <v>摄氏度</v>
       </c>
-      <c r="D18" s="171"/>
+      <c r="D18" s="138"/>
       <c r="K18" s="12">
         <v>110224</v>
       </c>
@@ -32664,13 +32675,13 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="193" t="s">
         <v>4263</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
       <c r="K20" s="12">
         <v>110227</v>
       </c>
@@ -32682,14 +32693,14 @@
       <c r="A21" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178" t="s">
+      <c r="C21" s="191"/>
+      <c r="D21" s="191" t="s">
         <v>788</v>
       </c>
-      <c r="E21" s="178"/>
+      <c r="E21" s="191"/>
       <c r="F21" s="83" t="s">
         <v>714</v>
       </c>
@@ -32710,16 +32721,16 @@
       <c r="A22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="179" t="s">
+      <c r="B22" s="187" t="s">
         <v>4259</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="184" t="str">
+      <c r="C22" s="187"/>
+      <c r="D22" s="192" t="str">
         <f>VLOOKUP(LEFT(B22,6)*1,K:L,2,0)</f>
         <v>江苏省盐城市滨海县</v>
       </c>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185">
+      <c r="E22" s="192"/>
+      <c r="F22" s="145">
         <f>DATE(MID(B22,7,4),MID(B22,11,2),MID(B22,13,2))</f>
         <v>31852</v>
       </c>
@@ -32739,16 +32750,16 @@
       <c r="A23" s="83" t="s">
         <v>4260</v>
       </c>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="187" t="s">
         <v>790</v>
       </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180" t="str">
+      <c r="C23" s="187"/>
+      <c r="D23" s="188" t="str">
         <f>VLOOKUP(LEFT(B23,6)*1,K:L,2,0)</f>
         <v>辽宁省大连市金州区</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="183">
+      <c r="E23" s="189"/>
+      <c r="F23" s="144">
         <f t="shared" ref="F23:F24" si="6">DATE(MID(B23,7,4),MID(B23,11,2),MID(B23,13,2))</f>
         <v>30920</v>
       </c>
@@ -32768,16 +32779,16 @@
       <c r="A24" s="83" t="s">
         <v>4261</v>
       </c>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="187" t="s">
         <v>4262</v>
       </c>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180" t="str">
+      <c r="C24" s="187"/>
+      <c r="D24" s="188" t="str">
         <f>VLOOKUP(LEFT(B24,6)*1,K:L,2,0)</f>
         <v>四川省巴中地区南江县</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="183">
+      <c r="E24" s="189"/>
+      <c r="F24" s="144">
         <f t="shared" si="6"/>
         <v>35727</v>
       </c>
@@ -32785,7 +32796,7 @@
         <f t="shared" si="7"/>
         <v>男</v>
       </c>
-      <c r="H24" s="182"/>
+      <c r="H24" s="143"/>
       <c r="K24" s="12">
         <v>120100</v>
       </c>
@@ -60331,6 +60342,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B22:C22"/>
@@ -60341,9 +60355,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60352,19 +60363,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="15"/>
-    <col min="2" max="2" width="8.09765625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="15" customWidth="1"/>
     <col min="3" max="3" width="8.19921875" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.8984375" style="15" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="15" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" style="15" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" style="15" bestFit="1" customWidth="1"/>
@@ -60376,36 +60387,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="147" t="s">
         <v>708</v>
       </c>
-      <c r="F1" s="187" t="s">
+      <c r="F1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="159" t="s">
         <v>4264</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="191"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="200"/>
       <c r="P1" s="57" t="s">
         <v>4265</v>
       </c>
@@ -60432,12 +60443,12 @@
       <c r="D2" s="80">
         <v>90</v>
       </c>
-      <c r="E2" s="188">
-        <f>SUM(B2:D2)</f>
+      <c r="E2" s="148">
+        <f t="shared" ref="E2:E8" si="0">SUM(B2:D2)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="188">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="F2" s="148">
+        <f t="shared" ref="F2:F8" si="1">AVERAGE(B2:D2)</f>
         <v>61.333333333333336</v>
       </c>
       <c r="G2" s="118">
@@ -60472,23 +60483,23 @@
         <v>77</v>
       </c>
       <c r="E3" s="108">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="F3" s="108">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G8" si="0">RANK(E3,$E$2:$E$8)</f>
+        <f t="shared" ref="G3:G8" si="2">RANK(E3,$E$2:$E$8)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="159" t="s">
         <v>4272</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="2"/>
       <c r="P3" s="12" t="s">
         <v>4269</v>
@@ -60500,7 +60511,7 @@
         <v>7.6</v>
       </c>
       <c r="S3" s="12">
-        <f t="shared" ref="S3:S9" si="1">IF(MOD(R3,1)&gt;=0.5,INT(R3)+0.5,INT(R3))</f>
+        <f t="shared" ref="S3:S9" si="3">IF(MOD(R3,1)&gt;=0.5,INT(R3)+0.5,INT(R3))</f>
         <v>7.5</v>
       </c>
     </row>
@@ -60518,15 +60529,15 @@
         <v>98</v>
       </c>
       <c r="E4" s="108">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>263</v>
       </c>
       <c r="F4" s="108">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="1"/>
         <v>87.666666666666671</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M4" s="2"/>
@@ -60540,7 +60551,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="S4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -60558,22 +60569,22 @@
         <v>83</v>
       </c>
       <c r="E5" s="108">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="F5" s="108">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="1"/>
         <v>81.666666666666671</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="I5" s="201" t="s">
         <v>4273</v>
       </c>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="12" t="s">
@@ -60586,7 +60597,7 @@
         <v>9.4</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -60604,15 +60615,15 @@
         <v>54</v>
       </c>
       <c r="E6" s="108">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F6" s="108">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P6" s="12" t="s">
@@ -60625,7 +60636,7 @@
         <v>7.8</v>
       </c>
       <c r="S6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -60643,15 +60654,15 @@
         <v>49</v>
       </c>
       <c r="E7" s="108">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="F7" s="108">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="1"/>
         <v>58.666666666666664</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="P7" s="12" t="s">
@@ -60664,7 +60675,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="S7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
     </row>
@@ -60682,15 +60693,15 @@
         <v>98</v>
       </c>
       <c r="E8" s="108">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>277</v>
       </c>
       <c r="F8" s="108">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="1"/>
         <v>92.333333333333329</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P8" s="12" t="s">
@@ -60703,24 +60714,24 @@
         <v>6.5</v>
       </c>
       <c r="S8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="188">
+      <c r="B9" s="148">
         <f>AVERAGE(B2:B8)</f>
         <v>64.428571428571431</v>
       </c>
       <c r="C9" s="108">
-        <f t="shared" ref="C9:D9" si="2">AVERAGE(C2:C8)</f>
+        <f t="shared" ref="C9:D9" si="4">AVERAGE(C2:C8)</f>
         <v>70</v>
       </c>
       <c r="D9" s="108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.428571428571431</v>
       </c>
       <c r="E9" s="108"/>
@@ -60736,24 +60747,24 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="147" t="s">
         <v>709</v>
       </c>
-      <c r="B10" s="188">
+      <c r="B10" s="148">
         <f>MAX(B2:B8)</f>
         <v>90</v>
       </c>
       <c r="C10" s="108">
-        <f t="shared" ref="C10:D10" si="3">MAX(C2:C8)</f>
+        <f t="shared" ref="C10:D10" si="5">MAX(C2:C8)</f>
         <v>89</v>
       </c>
       <c r="D10" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="E10" s="12"/>
@@ -60761,19 +60772,19 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="147" t="s">
         <v>710</v>
       </c>
-      <c r="B11" s="188">
+      <c r="B11" s="148">
         <f>MIN(B2:B8)</f>
         <v>39</v>
       </c>
       <c r="C11" s="108">
-        <f t="shared" ref="C11:D11" si="4">MIN(C2:C8)</f>
+        <f t="shared" ref="C11:D11" si="6">MIN(C2:C8)</f>
         <v>47</v>
       </c>
       <c r="D11" s="108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="E11" s="12"/>
@@ -60781,13 +60792,13 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
@@ -60845,7 +60856,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="202" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -60880,7 +60891,7 @@
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -60913,7 +60924,7 @@
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -60946,7 +60957,7 @@
       <c r="N17" s="115"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="143"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
@@ -60979,7 +60990,7 @@
       <c r="N18" s="115"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
@@ -61012,7 +61023,7 @@
       <c r="N19" s="115"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -61045,11 +61056,11 @@
       <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="207"/>
       <c r="D21" s="116">
         <f>SUM(D15:D20)</f>
         <v>210.8</v>
@@ -61077,7 +61088,7 @@
       <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="202" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -61112,7 +61123,7 @@
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
+      <c r="A23" s="203"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -61145,7 +61156,7 @@
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
@@ -61157,7 +61168,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
@@ -61167,19 +61178,19 @@
       <c r="D25" s="69">
         <v>150</v>
       </c>
-      <c r="F25" s="195" t="s">
+      <c r="F25" s="199" t="s">
         <v>4274</v>
       </c>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="144"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
@@ -61203,28 +61214,28 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="116">
         <f>SUM(D22:D26)</f>
         <v>628</v>
       </c>
-      <c r="F27" s="195" t="s">
+      <c r="F27" s="199" t="s">
         <v>4276</v>
       </c>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="199"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="202" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -61237,18 +61248,18 @@
         <v>258</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -61260,7 +61271,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="143"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
@@ -61271,24 +61282,10 @@
         <v>267.08</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
+      <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
+      <c r="A31" s="203"/>
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
@@ -61298,24 +61295,10 @@
       <c r="D31" s="69">
         <v>277.7</v>
       </c>
-      <c r="F31" s="174" t="s">
-        <v>4281</v>
-      </c>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
+      <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
+      <c r="A32" s="203"/>
       <c r="B32" s="12" t="s">
         <v>41</v>
       </c>
@@ -61325,24 +61308,10 @@
       <c r="D32" s="69">
         <v>278</v>
       </c>
-      <c r="F32" s="174" t="s">
-        <v>4282</v>
-      </c>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
+      <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
+      <c r="A33" s="204"/>
       <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
@@ -61352,944 +61321,947 @@
       <c r="D33" s="69">
         <v>350</v>
       </c>
-      <c r="F33" s="174" t="s">
-        <v>4283</v>
-      </c>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
+      <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145" t="s">
+      <c r="A34" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="207"/>
       <c r="D34" s="116">
         <f>SUM(D28:D33)</f>
         <v>1689.28</v>
       </c>
-      <c r="F34" s="174" t="s">
+      <c r="R34" s="140">
+        <f>INDEX($A:$A,COLUMN()-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="140"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="159" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="R36" s="140"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="R37" s="140"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="R38" s="140"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="R39" s="140"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>4284</v>
       </c>
-      <c r="G34" s="174"/>
-      <c r="H34" s="200" t="str">
-        <f>INDEX($A:$A,COLUMN()-2)</f>
-        <v>李节</v>
-      </c>
-      <c r="I34" s="174" t="str">
-        <f t="shared" ref="I34:R34" si="5">INDEX($A:$A,COLUMN()-2)</f>
-        <v>阮大</v>
-      </c>
-      <c r="J34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>孔庙</v>
-      </c>
-      <c r="K34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>平均分</v>
-      </c>
-      <c r="L34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>最高分</v>
-      </c>
-      <c r="M34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>最低分</v>
-      </c>
-      <c r="N34" s="174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>有些数据要分段统计不方便拖拽，可以使用定位条件+自动求和/Ctrl+回车</v>
-      </c>
-      <c r="P34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>部门</v>
-      </c>
-      <c r="Q34" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>一车间</v>
-      </c>
-      <c r="R34" s="174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="174" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="209" t="str">
+        <f>INDEX($A$37:$A$46,COLUMN()-2)</f>
+        <v>姓名</v>
+      </c>
+      <c r="D41" s="210" t="str">
+        <f t="shared" ref="D41:L41" si="7">INDEX($A$37:$A$46,COLUMN()-2)</f>
+        <v>汪梅</v>
+      </c>
+      <c r="E41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>郭磊</v>
+      </c>
+      <c r="F41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>林涛</v>
+      </c>
+      <c r="G41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>朱健</v>
+      </c>
+      <c r="H41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>李明</v>
+      </c>
+      <c r="I41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>王建国</v>
+      </c>
+      <c r="J41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>陈玉</v>
+      </c>
+      <c r="K41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>张华</v>
+      </c>
+      <c r="L41" s="210" t="str">
+        <f t="shared" si="7"/>
+        <v>李丽</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>4285</v>
       </c>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="174" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>4286</v>
       </c>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="174" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>4287</v>
       </c>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="174" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>4288</v>
       </c>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="174"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="174" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>4289</v>
       </c>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="201" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="208"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="208"/>
+      <c r="D47" s="208"/>
+      <c r="E47" s="208"/>
+      <c r="F47" s="208"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="208"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="208"/>
+      <c r="K47" s="208"/>
+      <c r="L47" s="208"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C48" s="209" t="str">
+        <f>INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <v>汪梅</v>
+      </c>
+      <c r="D48" s="210" t="str">
+        <f t="shared" ref="D48:E54" si="8">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <v>郭磊</v>
+      </c>
+      <c r="E48" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>林涛</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C49" s="210" t="str">
+        <f t="shared" ref="C49:C52" si="9">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <v>朱健</v>
+      </c>
+      <c r="D49" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>李明</v>
+      </c>
+      <c r="E49" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>王建国</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C50" s="210" t="str">
+        <f t="shared" si="9"/>
+        <v>陈玉</v>
+      </c>
+      <c r="D50" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>张华</v>
+      </c>
+      <c r="E50" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>李丽</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C51" s="210" t="str">
+        <f t="shared" si="9"/>
+        <v>汪成</v>
+      </c>
+      <c r="D51" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>李军</v>
+      </c>
+      <c r="E51" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>王红蕾</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C52" s="210" t="str">
+        <f t="shared" si="9"/>
+        <v>王华</v>
+      </c>
+      <c r="D52" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>孙传富</v>
+      </c>
+      <c r="E52" s="210" t="str">
+        <f t="shared" si="8"/>
+        <v>赵炎</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D53" s="212"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="212"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>4287</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>4288</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>4289</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56" s="158"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>4313</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>4314</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>4315</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>4316</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>4317</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B64" s="135"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="196" t="s">
         <v>4290</v>
       </c>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
-      <c r="K41"/>
-      <c r="L41" s="174" t="s">
+      <c r="B65" s="197"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="198"/>
+      <c r="F65"/>
+      <c r="G65" s="140"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="155" t="s">
         <v>4291</v>
       </c>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="204" t="s">
+      <c r="B66" s="155" t="s">
         <v>4292</v>
       </c>
-      <c r="G42" s="204" t="s">
+      <c r="C66" s="155">
+        <v>16</v>
+      </c>
+      <c r="D66" s="156">
+        <v>19269.685163999999</v>
+      </c>
+      <c r="E66" s="156">
+        <v>18982.847759558852</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" s="157">
+        <f>INDEX($E:$E,ROW()+(ROW()-66)*4+1)</f>
+        <v>40893.083149311875</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B67" s="155" t="s">
         <v>4293</v>
       </c>
-      <c r="H42" s="204">
+      <c r="C67" s="155">
+        <v>40</v>
+      </c>
+      <c r="D67" s="156">
+        <v>39465.169800000003</v>
+      </c>
+      <c r="E67" s="156">
+        <v>40893.083149311875</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" s="211">
+        <f t="shared" ref="G67:G70" si="10">INDEX($E:$E,ROW()+(ROW()-66)*4+1)</f>
+        <v>43537.557757683368</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B68" s="155" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C68" s="155">
+        <v>20</v>
+      </c>
+      <c r="D68" s="156">
+        <v>21015.944745000001</v>
+      </c>
+      <c r="E68" s="156">
+        <v>22294.085220814908</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" s="211">
+        <f t="shared" si="10"/>
+        <v>51700.030820578511</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B69" s="155" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C69" s="155">
+        <v>20</v>
+      </c>
+      <c r="D69" s="156">
+        <v>23710.258592999999</v>
+      </c>
+      <c r="E69" s="156">
+        <v>24318.374117613792</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" s="211">
+        <f t="shared" si="10"/>
+        <v>32726.657776180989</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="196" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="198"/>
+      <c r="F70"/>
+      <c r="G70" s="211">
+        <f t="shared" si="10"/>
+        <v>43537.557757683368</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B71" s="155" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C71" s="155">
         <v>16</v>
       </c>
-      <c r="I42" s="205">
-        <v>19269.685163999999</v>
-      </c>
-      <c r="J42" s="205">
-        <v>18982.847759558852</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42" s="206" t="s">
-        <v>4294</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G43" s="204" t="s">
-        <v>4295</v>
-      </c>
-      <c r="H43" s="204">
-        <v>40</v>
-      </c>
-      <c r="I43" s="205">
-        <v>39465.169800000003</v>
-      </c>
-      <c r="J43" s="205">
-        <v>40893.083149311875</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43" s="207">
-        <f>INDEX($E:$E,ROW()*5-12)</f>
-        <v>0</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G44" s="204" t="s">
-        <v>4296</v>
-      </c>
-      <c r="H44" s="204">
-        <v>20</v>
-      </c>
-      <c r="I44" s="205">
-        <v>21015.944745000001</v>
-      </c>
-      <c r="J44" s="205">
-        <v>22294.085220814908</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44" s="205">
-        <f t="shared" ref="M44:M47" si="6">INDEX($E:$E,ROW()*5-12)</f>
-        <v>0</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44">
-        <v>8</v>
-      </c>
-      <c r="P44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G45" s="204" t="s">
-        <v>4297</v>
-      </c>
-      <c r="H45" s="204">
-        <v>20</v>
-      </c>
-      <c r="I45" s="205">
-        <v>23710.258592999999</v>
-      </c>
-      <c r="J45" s="205">
-        <v>24318.374117613792</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45">
-        <v>13</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="201" t="s">
+      <c r="D71" s="156">
+        <v>20015.072431199998</v>
+      </c>
+      <c r="E71" s="156">
+        <v>20256.694699447638</v>
+      </c>
+      <c r="F71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B72" s="155" t="s">
         <v>4298</v>
       </c>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="203"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46">
-        <v>18</v>
-      </c>
-      <c r="P46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G47" s="204" t="s">
-        <v>4299</v>
-      </c>
-      <c r="H47" s="204">
-        <v>16</v>
-      </c>
-      <c r="I47" s="205">
-        <v>20015.072431199998</v>
-      </c>
-      <c r="J47" s="205">
-        <v>20256.694699447638</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N47"/>
-      <c r="O47">
-        <v>23</v>
-      </c>
-      <c r="P47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G48" s="204" t="s">
-        <v>4300</v>
-      </c>
-      <c r="H48" s="204">
+      <c r="C72" s="155">
         <v>200</v>
       </c>
-      <c r="I48" s="205">
+      <c r="D72" s="156">
         <v>40014.12141</v>
       </c>
-      <c r="J48" s="205">
+      <c r="E72" s="156">
         <v>43537.557757683368</v>
       </c>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48" s="208"/>
-      <c r="O48"/>
-      <c r="P48"/>
-    </row>
-    <row r="49" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G49" s="204" t="s">
-        <v>4301</v>
-      </c>
-      <c r="H49" s="204">
-        <v>100</v>
-      </c>
-      <c r="I49" s="205">
-        <v>21423.94932</v>
-      </c>
-      <c r="J49" s="205">
-        <v>22917.339613203356</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-    </row>
-    <row r="50" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G50" s="204" t="s">
-        <v>4302</v>
-      </c>
-      <c r="H50" s="204">
-        <v>200</v>
-      </c>
-      <c r="I50" s="205">
-        <v>40014.12141</v>
-      </c>
-      <c r="J50" s="205">
-        <v>44258.364560249865</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-    </row>
-    <row r="51" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="201" t="s">
-        <v>4303</v>
-      </c>
-      <c r="G51" s="202"/>
-      <c r="H51" s="202"/>
-      <c r="I51" s="202"/>
-      <c r="J51" s="203"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-    </row>
-    <row r="52" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G52" s="204" t="s">
-        <v>4304</v>
-      </c>
-      <c r="H52" s="204">
-        <v>400</v>
-      </c>
-      <c r="I52" s="205">
-        <v>84271.490399999995</v>
-      </c>
-      <c r="J52" s="205">
-        <v>92391.153643258687</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-    </row>
-    <row r="53" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G53" s="204" t="s">
-        <v>4305</v>
-      </c>
-      <c r="H53" s="204">
-        <v>212</v>
-      </c>
-      <c r="I53" s="205">
-        <v>48705.657414599991</v>
-      </c>
-      <c r="J53" s="205">
-        <v>51700.030820578511</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-    </row>
-    <row r="54" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G54" s="204" t="s">
-        <v>4306</v>
-      </c>
-      <c r="H54" s="204">
-        <v>224</v>
-      </c>
-      <c r="I54" s="205">
-        <v>47192.034624</v>
-      </c>
-      <c r="J54" s="205">
-        <v>50558.498384562939</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-    </row>
-    <row r="55" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G55" s="204" t="s">
-        <v>4307</v>
-      </c>
-      <c r="H55" s="204">
-        <v>92</v>
-      </c>
-      <c r="I55" s="205">
-        <v>21136.417368599999</v>
-      </c>
-      <c r="J55" s="205">
-        <v>22115.228953458598</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-    </row>
-    <row r="56" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="201" t="s">
-        <v>4308</v>
-      </c>
-      <c r="G56" s="202"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="203"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-    </row>
-    <row r="57" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F57" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G57" s="204" t="s">
-        <v>4309</v>
-      </c>
-      <c r="H57" s="204">
-        <v>100</v>
-      </c>
-      <c r="I57" s="205">
-        <v>27499.508355000002</v>
-      </c>
-      <c r="J57" s="205">
-        <v>30712.177367957313</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-    </row>
-    <row r="58" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G58" s="204" t="s">
-        <v>4310</v>
-      </c>
-      <c r="H58" s="204">
-        <v>140</v>
-      </c>
-      <c r="I58" s="205">
-        <v>29993.529048</v>
-      </c>
-      <c r="J58" s="205">
-        <v>32726.657776180989</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-    </row>
-    <row r="59" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="204" t="s">
-        <v>4311</v>
-      </c>
-      <c r="G59" s="204" t="s">
-        <v>4312</v>
-      </c>
-      <c r="H59" s="204">
-        <v>108</v>
-      </c>
-      <c r="I59" s="205">
-        <v>34682.76271979999</v>
-      </c>
-      <c r="J59" s="205">
-        <v>35738.658109519878</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-    </row>
-    <row r="60" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="204" t="s">
-        <v>4311</v>
-      </c>
-      <c r="G60" s="204" t="s">
-        <v>4313</v>
-      </c>
-      <c r="H60" s="204">
-        <v>72</v>
-      </c>
-      <c r="I60" s="205">
-        <v>12492.951721200001</v>
-      </c>
-      <c r="J60" s="205">
-        <v>11098.923925167686</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-    </row>
-    <row r="61" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F61" s="201" t="s">
-        <v>4314</v>
-      </c>
-      <c r="G61" s="202"/>
-      <c r="H61" s="202"/>
-      <c r="I61" s="202"/>
-      <c r="J61" s="203"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-    </row>
-    <row r="62" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G62" s="204" t="s">
-        <v>4299</v>
-      </c>
-      <c r="H62" s="204">
-        <v>16</v>
-      </c>
-      <c r="I62" s="205">
-        <v>20015.072431199998</v>
-      </c>
-      <c r="J62" s="205">
-        <v>20256.694699447638</v>
-      </c>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-    </row>
-    <row r="63" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G63" s="204" t="s">
-        <v>4300</v>
-      </c>
-      <c r="H63" s="204">
-        <v>200</v>
-      </c>
-      <c r="I63" s="205">
-        <v>40014.12141</v>
-      </c>
-      <c r="J63" s="205">
-        <v>43537.557757683368</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-    </row>
-    <row r="64" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F64" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G64" s="204" t="s">
-        <v>4301</v>
-      </c>
-      <c r="H64" s="204">
-        <v>100</v>
-      </c>
-      <c r="I64" s="205">
-        <v>21423.94932</v>
-      </c>
-      <c r="J64" s="205">
-        <v>22917.339613203356</v>
-      </c>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-    </row>
-    <row r="65" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="204" t="s">
-        <v>4292</v>
-      </c>
-      <c r="G65" s="204" t="s">
-        <v>4302</v>
-      </c>
-      <c r="H65" s="204">
-        <v>200</v>
-      </c>
-      <c r="I65" s="205">
-        <v>40014.12141</v>
-      </c>
-      <c r="J65" s="205">
-        <v>44258.364560249865</v>
-      </c>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-    </row>
-    <row r="68" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
-        <v>4281</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68" s="209">
-        <f>INDEX($A:$A,ROW()*3+COLUMN()-6)</f>
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:K72" si="7">INDEX($A:$A,ROW()*3+COLUMN()-6)</f>
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
-        <v>4282</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69">
-        <f t="shared" ref="I69:I71" si="8">INDEX($A:$A,ROW()*3+COLUMN()-6)</f>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
-        <v>4283</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
-        <v>4284</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
-        <v>4285</v>
-      </c>
+      <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72">
-        <f>INDEX($A:$A,ROW()*3+COLUMN()-6)</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
-        <v>4286</v>
-      </c>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B73" s="155" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C73" s="155">
+        <v>100</v>
+      </c>
+      <c r="D73" s="156">
+        <v>21423.94932</v>
+      </c>
+      <c r="E73" s="156">
+        <v>22917.339613203356</v>
+      </c>
+      <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
-        <v>4287</v>
-      </c>
+    <row r="74" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B74" s="155" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C74" s="155">
+        <v>200</v>
+      </c>
+      <c r="D74" s="156">
+        <v>40014.12141</v>
+      </c>
+      <c r="E74" s="156">
+        <v>44258.364560249865</v>
+      </c>
+      <c r="F74"/>
       <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-    </row>
-    <row r="75" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
-        <v>4288</v>
-      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="196" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="198"/>
+      <c r="F75"/>
       <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-    </row>
-    <row r="76" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
-        <v>4289</v>
-      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B76" s="155" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C76" s="155">
+        <v>400</v>
+      </c>
+      <c r="D76" s="156">
+        <v>84271.490399999995</v>
+      </c>
+      <c r="E76" s="156">
+        <v>92391.153643258687</v>
+      </c>
+      <c r="F76"/>
       <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-    </row>
-    <row r="77" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
-        <v>4315</v>
-      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B77" s="155" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C77" s="155">
+        <v>212</v>
+      </c>
+      <c r="D77" s="156">
+        <v>48705.657414599991</v>
+      </c>
+      <c r="E77" s="156">
+        <v>51700.030820578511</v>
+      </c>
+      <c r="F77"/>
       <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-    </row>
-    <row r="78" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
-        <v>4316</v>
-      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B78" s="155" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C78" s="155">
+        <v>224</v>
+      </c>
+      <c r="D78" s="156">
+        <v>47192.034624</v>
+      </c>
+      <c r="E78" s="156">
+        <v>50558.498384562939</v>
+      </c>
+      <c r="F78"/>
       <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-    </row>
-    <row r="79" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
-        <v>4317</v>
-      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B79" s="155" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C79" s="155">
+        <v>92</v>
+      </c>
+      <c r="D79" s="156">
+        <v>21136.417368599999</v>
+      </c>
+      <c r="E79" s="156">
+        <v>22115.228953458598</v>
+      </c>
+      <c r="F79"/>
       <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-    </row>
-    <row r="80" spans="6:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
-        <v>4318</v>
-      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="196" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="198"/>
+      <c r="F80"/>
       <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-    </row>
-    <row r="81" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
-        <v>4319</v>
-      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B81" s="155" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C81" s="155">
+        <v>100</v>
+      </c>
+      <c r="D81" s="156">
+        <v>27499.508355000002</v>
+      </c>
+      <c r="E81" s="156">
+        <v>30712.177367957313</v>
+      </c>
+      <c r="F81"/>
       <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-    </row>
-    <row r="82" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
-        <v>4320</v>
-      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B82" s="155" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C82" s="155">
+        <v>140</v>
+      </c>
+      <c r="D82" s="156">
+        <v>29993.529048</v>
+      </c>
+      <c r="E82" s="156">
+        <v>32726.657776180989</v>
+      </c>
+      <c r="F82"/>
       <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="155" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B83" s="155" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C83" s="155">
+        <v>108</v>
+      </c>
+      <c r="D83" s="156">
+        <v>34682.76271979999</v>
+      </c>
+      <c r="E83" s="156">
+        <v>35738.658109519878</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="155" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B84" s="155" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C84" s="155">
+        <v>72</v>
+      </c>
+      <c r="D84" s="156">
+        <v>12492.951721200001</v>
+      </c>
+      <c r="E84" s="156">
+        <v>11098.923925167686</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="196" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="198"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B86" s="155" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C86" s="155">
+        <v>16</v>
+      </c>
+      <c r="D86" s="156">
+        <v>20015.072431199998</v>
+      </c>
+      <c r="E86" s="156">
+        <v>20256.694699447638</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B87" s="155" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C87" s="155">
+        <v>200</v>
+      </c>
+      <c r="D87" s="156">
+        <v>40014.12141</v>
+      </c>
+      <c r="E87" s="156">
+        <v>43537.557757683368</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B88" s="155" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C88" s="155">
+        <v>100</v>
+      </c>
+      <c r="D88" s="156">
+        <v>21423.94932</v>
+      </c>
+      <c r="E88" s="156">
+        <v>22917.339613203356</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B89" s="155" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C89" s="155">
+        <v>200</v>
+      </c>
+      <c r="D89" s="156">
+        <v>40014.12141</v>
+      </c>
+      <c r="E89" s="156">
+        <v>44258.364560249865</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F41:J41"/>
+  <mergeCells count="17">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A85:E85"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I5:K5"/>
@@ -62299,6 +62271,8 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="F27:M27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/06_函数和公式.xlsx
+++ b/excel/06_函数和公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7463D-F4D1-44A6-B68E-25A5A8FC795C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A423B313-6F50-4230-92B1-0ECE0C226654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单元格引用" sheetId="18" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="4321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5836" uniqueCount="4322">
   <si>
     <t>数量</t>
   </si>
@@ -1028,11 +1028,11 @@
   </si>
   <si>
     <t>vlookup(查找值，查找范围，列索引，0精确匹配/1模糊匹配)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AABCD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>三川实业有限公司</t>
@@ -1045,7 +1045,7 @@
   </si>
   <si>
     <t>崇明路50号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>天津</t>
@@ -1058,7 +1058,7 @@
   </si>
   <si>
     <t>注意：查找范围必须是查找列在最左边，否则要用index+match，其实vlookup就是封装了这俩所以有局限性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ANATR</t>
@@ -1074,7 +1074,7 @@
   </si>
   <si>
     <t>承德路80号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ANTON</t>
@@ -1087,14 +1087,14 @@
   </si>
   <si>
     <t>黄台路78号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>石家庄</t>
   </si>
   <si>
     <t>精确匹配</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AROUT</t>
@@ -1107,7 +1107,7 @@
   </si>
   <si>
     <t>天府街30号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>深圳</t>
@@ -1255,7 +1255,7 @@
   </si>
   <si>
     <t>黄石路50号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CACTU</t>
@@ -1268,15 +1268,15 @@
   </si>
   <si>
     <t>经纬路13号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>正常顺序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>错乱顺序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CENTC</t>
@@ -1286,19 +1286,19 @@
   </si>
   <si>
     <t>英雄路84号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联系人姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联系人头衔</t>
@@ -1306,7 +1306,7 @@
   </si>
   <si>
     <t>白广路31号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CHOPS</t>
@@ -1406,7 +1406,7 @@
   </si>
   <si>
     <t>临江街62号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LEHMS</t>
@@ -1435,11 +1435,11 @@
   </si>
   <si>
     <t>通配符也是精确匹配</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>模糊匹配：一般用于划分数值区间，且只找小于等于自己的最大值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FOLIG</t>
@@ -1598,7 +1598,7 @@
   </si>
   <si>
     <t>数字格式问题：数值只能加减乘除，文本只能相连</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GREAL</t>
@@ -1643,11 +1643,11 @@
   </si>
   <si>
     <t>数值转文本&amp;""</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>永惠街39号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>南昌</t>
@@ -1701,7 +1701,7 @@
   </si>
   <si>
     <t>文本转数值*1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KOENE</t>
@@ -1714,7 +1714,7 @@
   </si>
   <si>
     <t>1002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LACOR</t>
@@ -1727,7 +1727,7 @@
   </si>
   <si>
     <t>1003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LAMAI</t>
@@ -1740,15 +1740,15 @@
   </si>
   <si>
     <t>创业路23号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>劳动路39号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ISNA判断</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LEHMS</t>
@@ -1758,7 +1758,7 @@
   </si>
   <si>
     <t>七一路89号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LETSS</t>
@@ -1789,7 +1789,7 @@
   </si>
   <si>
     <t>hlookup(查找值，查找范围，行索引，0精确匹配/1模糊匹配)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LONEP</t>
@@ -1880,7 +1880,7 @@
   </si>
   <si>
     <t>BOLID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OTTIK</t>
@@ -13178,15 +13178,15 @@
   </si>
   <si>
     <t>index(引用列，行号)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>match(查找值，查找行/列，精确/模糊匹配) = 行号/列号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>row()/column()返回单元格行号/列号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>#N/A表示没找到值</t>
@@ -13318,6 +13318,10 @@
   <si>
     <t>行列转换：找到row()和column()之间关系</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组求和：Ctrl+Shift+回车，或者数组函数sumproduct直接回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13333,7 +13337,7 @@
     <numFmt numFmtId="181" formatCode="0_ "/>
     <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -13378,14 +13382,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -13449,14 +13445,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -13757,7 +13745,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -13788,337 +13776,337 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14127,78 +14115,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14213,79 +14201,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14297,44 +14295,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14342,37 +14337,39 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15134,17 +15131,17 @@
       <c r="G2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
     </row>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="120">
@@ -15161,18 +15158,18 @@
       <c r="G3" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="169" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120">
@@ -15199,21 +15196,21 @@
         <f>C4+$E$2</f>
         <v>1500</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120">
@@ -15233,18 +15230,18 @@
       <c r="G7" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
@@ -16505,15 +16502,15 @@
         <f>IF(I2&gt;=600,"第一批",IF(I2&gt;=400,"第二批","落榜"))</f>
         <v>第一批</v>
       </c>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
       <c r="S2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16838,12 +16835,12 @@
         <v>1000</v>
       </c>
       <c r="O9" s="50"/>
-      <c r="P9" s="166" t="s">
+      <c r="P9" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
@@ -19280,8 +19277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716994A2-1ED3-4BD2-A694-90A12187E83A}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20200,10 +20197,10 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="168"/>
+      <c r="I4" s="174"/>
       <c r="L4" s="79" t="s">
         <v>10</v>
       </c>
@@ -20727,10 +20724,10 @@
       <c r="F16" s="69">
         <v>277.7</v>
       </c>
-      <c r="H16" s="171" t="s">
+      <c r="H16" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="172"/>
+      <c r="I16" s="176"/>
       <c r="J16" s="57" t="s">
         <v>190</v>
       </c>
@@ -20769,10 +20766,10 @@
       <c r="F17" s="69">
         <v>278</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="174"/>
+      <c r="I17" s="178"/>
       <c r="J17" s="14">
         <f t="shared" ref="J17:J29" si="3">COUNTIF($H$17:$H$29,H17&amp;"*")</f>
         <v>1</v>
@@ -20820,10 +20817,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="177" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="174"/>
+      <c r="I18" s="178"/>
       <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -20871,10 +20868,10 @@
       <c r="F19" s="69">
         <v>408</v>
       </c>
-      <c r="H19" s="175" t="s">
+      <c r="H19" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="176"/>
+      <c r="I19" s="180"/>
       <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -20922,10 +20919,10 @@
       <c r="F20" s="69">
         <v>560</v>
       </c>
-      <c r="H20" s="175" t="s">
+      <c r="H20" s="179" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="176"/>
+      <c r="I20" s="180"/>
       <c r="J20" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21173,10 +21170,10 @@
       <c r="F25" s="69">
         <v>1016.78</v>
       </c>
-      <c r="H25" s="175" t="s">
+      <c r="H25" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="176"/>
+      <c r="I25" s="180"/>
       <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21369,10 +21366,10 @@
       <c r="F29" s="69">
         <v>1256.3</v>
       </c>
-      <c r="H29" s="175" t="s">
+      <c r="H29" s="179" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="176"/>
+      <c r="I29" s="180"/>
       <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21471,10 +21468,10 @@
       <c r="F32" s="69">
         <v>1328.9</v>
       </c>
-      <c r="H32" s="169" t="s">
+      <c r="H32" s="165" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="170"/>
+      <c r="I32" s="166"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -21607,10 +21604,10 @@
       <c r="F37" s="69">
         <v>2977.9</v>
       </c>
-      <c r="H37" s="169" t="s">
+      <c r="H37" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="170"/>
+      <c r="I37" s="166"/>
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -22045,8 +22042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E661589-EA39-45A3-BBAB-766F80EB3FAF}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22055,7 +22052,7 @@
     <col min="5" max="5" width="9.59765625" style="13" customWidth="1"/>
     <col min="6" max="6" width="9.19921875" style="13" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="13"/>
-    <col min="8" max="8" width="9.8984375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="41" customWidth="1"/>
     <col min="9" max="11" width="8.796875" style="13"/>
     <col min="12" max="12" width="9.09765625" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.796875" style="13" customWidth="1"/>
@@ -22818,7 +22815,7 @@
     <col min="16114" max="16384" width="8.796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>167</v>
       </c>
@@ -22853,7 +22850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>174</v>
       </c>
@@ -22895,7 +22892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>174</v>
       </c>
@@ -22936,10 +22933,10 @@
       </c>
       <c r="S3" s="14">
         <f ca="1">SUMIF($M$1:$P$11,R3,$N$1)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>174</v>
       </c>
@@ -22958,11 +22955,11 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
       <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
@@ -22983,7 +22980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>174</v>
       </c>
@@ -23028,7 +23025,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>174</v>
       </c>
@@ -23074,7 +23071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>174</v>
       </c>
@@ -23113,7 +23110,7 @@
         <v>277.7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>174</v>
       </c>
@@ -23152,7 +23149,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>174</v>
       </c>
@@ -23171,12 +23168,13 @@
       <c r="F9" s="69">
         <v>78</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="165" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="203"/>
       <c r="M9" s="12" t="s">
         <v>183</v>
       </c>
@@ -23190,7 +23188,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>174</v>
       </c>
@@ -23225,7 +23223,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>174</v>
       </c>
@@ -23248,20 +23246,12 @@
         <f>SUMIF(F:F,"&gt;500")</f>
         <v>84146.86</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="69">
-        <v>150</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="69">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="141"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="212"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>174</v>
       </c>
@@ -23280,16 +23270,16 @@
       <c r="F12" s="69">
         <v>180</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="165" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>174</v>
       </c>
@@ -23317,8 +23307,24 @@
       <c r="J13" s="57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="213"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>174</v>
       </c>
@@ -23347,8 +23353,27 @@
         <f>SUMIFS(F:F,D:D,H14,E:E,I14)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="74">
+        <f t="array" ref="N14">SUM(($D$2:$D$53=L14)*($E$2:$E$53=M14)*$F$2:$F$53)</f>
+        <v>5</v>
+      </c>
+      <c r="O14" s="184" t="s">
+        <v>4321</v>
+      </c>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="214"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>174</v>
       </c>
@@ -23377,8 +23402,18 @@
         <f>SUMIFS(F:F,D:D,H15,E:E,I15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="159">
+        <f t="array" ref="N15">SUM(($D$2:$D$53=L15)*($E$2:$E$53=M15)*$F$2:$F$53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>174</v>
       </c>
@@ -23407,6 +23442,16 @@
         <f>SUMIFS(F:F,D:D,H16,E:E,I16)</f>
         <v>1263</v>
       </c>
+      <c r="L16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="159">
+        <f t="array" ref="N16">SUM(($D$2:$D$53=L16)*($E$2:$E$53=M16)*$F$2:$F$53)</f>
+        <v>1263</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -23447,10 +23492,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="172"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="57" t="s">
         <v>250</v>
       </c>
@@ -23483,10 +23528,10 @@
       <c r="J19" s="12">
         <v>1000</v>
       </c>
-      <c r="L19" s="171" t="s">
+      <c r="L19" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="172"/>
+      <c r="M19" s="176"/>
       <c r="N19" s="57" t="s">
         <v>251</v>
       </c>
@@ -23894,10 +23939,10 @@
       <c r="F33" s="69">
         <v>1421.66</v>
       </c>
-      <c r="H33" s="169" t="s">
+      <c r="H33" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="170"/>
+      <c r="I33" s="166"/>
     </row>
     <row r="34" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
@@ -23918,15 +23963,15 @@
       <c r="F34" s="69">
         <v>1755</v>
       </c>
-      <c r="H34" s="177" t="s">
+      <c r="H34" s="181" t="s">
         <v>253</v>
       </c>
-      <c r="I34" s="178"/>
+      <c r="I34" s="182"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="177" t="s">
+      <c r="K34" s="181" t="s">
         <v>254</v>
       </c>
-      <c r="L34" s="178"/>
+      <c r="L34" s="182"/>
     </row>
     <row r="35" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
@@ -24157,15 +24202,15 @@
       <c r="F42" s="69">
         <v>31330.77</v>
       </c>
-      <c r="H42" s="159" t="s">
+      <c r="H42" s="165" t="s">
         <v>702</v>
       </c>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
-      <c r="K42" s="160"/>
-      <c r="L42" s="160"/>
-      <c r="M42" s="160"/>
-      <c r="N42" s="160"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
     </row>
     <row r="43" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -24407,7 +24452,8 @@
       <c r="F54" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="O14:T14"/>
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H18:I18"/>
@@ -24415,6 +24461,8 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -25183,14 +25231,14 @@
       <c r="H1" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="165" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -25222,19 +25270,19 @@
       <c r="H2" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -25331,11 +25379,11 @@
         <v>273</v>
       </c>
       <c r="O5" s="41"/>
-      <c r="P5" s="159" t="s">
+      <c r="P5" s="165" t="s">
         <v>4277</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
     </row>
     <row r="6" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
@@ -25377,14 +25425,14 @@
         <f>INDEX(A:A,MATCH(M6,B:B,0))</f>
         <v>CHOPS</v>
       </c>
-      <c r="P6" s="159" t="s">
+      <c r="P6" s="165" t="s">
         <v>4278</v>
       </c>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
     </row>
     <row r="7" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -25467,12 +25515,12 @@
         <f t="shared" si="1"/>
         <v>HANAR</v>
       </c>
-      <c r="P8" s="159" t="s">
+      <c r="P8" s="165" t="s">
         <v>4279</v>
       </c>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
     </row>
     <row r="9" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
@@ -26234,19 +26282,19 @@
       <c r="H23" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="182" t="s">
+      <c r="J23" s="186" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="183"/>
-      <c r="N23" s="159" t="s">
+      <c r="K23" s="187"/>
+      <c r="N23" s="165" t="s">
         <v>409</v>
       </c>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
     </row>
     <row r="24" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
@@ -26693,13 +26741,13 @@
       <c r="H32" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="179" t="s">
+      <c r="J32" s="183" t="s">
         <v>460</v>
       </c>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
       <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -26786,10 +26834,10 @@
         <f>VLOOKUP(N34&amp;"",$J$33:$L$36,3,0)</f>
         <v>95</v>
       </c>
-      <c r="P34" s="180" t="s">
+      <c r="P34" s="184" t="s">
         <v>473</v>
       </c>
-      <c r="Q34" s="181"/>
+      <c r="Q34" s="185"/>
     </row>
     <row r="35" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
@@ -27340,14 +27388,14 @@
       <c r="H48" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="167" t="s">
+      <c r="J48" s="173" t="s">
         <v>518</v>
       </c>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
-      <c r="O48" s="168"/>
+      <c r="K48" s="174"/>
+      <c r="L48" s="174"/>
+      <c r="M48" s="174"/>
+      <c r="N48" s="174"/>
+      <c r="O48" s="174"/>
     </row>
     <row r="49" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
@@ -29581,21 +29629,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="165" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
@@ -29770,12 +29818,12 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="165" t="s">
         <v>686</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29919,19 +29967,19 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="165" t="s">
         <v>690</v>
       </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
@@ -30027,14 +30075,14 @@
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="165" t="s">
         <v>695</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
@@ -30116,12 +30164,12 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="165" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
@@ -30862,10 +30910,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="127"/>
-      <c r="K17" s="159" t="s">
+      <c r="K17" s="165" t="s">
         <v>716</v>
       </c>
-      <c r="L17" s="159"/>
+      <c r="L17" s="165"/>
     </row>
     <row r="18" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="125">
@@ -30896,14 +30944,14 @@
         <v>2.52</v>
       </c>
       <c r="J18" s="127"/>
-      <c r="K18" s="186" t="s">
+      <c r="K18" s="190" t="s">
         <v>718</v>
       </c>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="128"/>
       <c r="S18" s="4"/>
@@ -30938,15 +30986,15 @@
         <v>0.4088</v>
       </c>
       <c r="J19" s="127"/>
-      <c r="K19" s="186" t="s">
+      <c r="K19" s="190" t="s">
         <v>720</v>
       </c>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
       <c r="R19" s="128"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -30980,14 +31028,14 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="J20" s="127"/>
-      <c r="K20" s="186" t="s">
+      <c r="K20" s="190" t="s">
         <v>743</v>
       </c>
-      <c r="L20" s="186"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="190"/>
       <c r="Q20" s="130"/>
       <c r="R20" s="130"/>
       <c r="S20" s="4"/>
@@ -31022,15 +31070,15 @@
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="184" t="s">
+      <c r="K21" s="188" t="s">
         <v>744</v>
       </c>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="184"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -31063,17 +31111,17 @@
       <c r="I22" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K22" s="184" t="s">
+      <c r="K22" s="188" t="s">
         <v>745</v>
       </c>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
       <c r="T22" s="11"/>
       <c r="U22" s="121"/>
     </row>
@@ -31134,11 +31182,11 @@
       <c r="I24" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="K24" s="159" t="s">
+      <c r="K24" s="165" t="s">
         <v>726</v>
       </c>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
     </row>
     <row r="25" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="125">
@@ -31168,17 +31216,17 @@
       <c r="I25" s="129">
         <v>0.36809999999999998</v>
       </c>
-      <c r="K25" s="184" t="s">
+      <c r="K25" s="188" t="s">
         <v>727</v>
       </c>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="188"/>
+      <c r="O25" s="188"/>
+      <c r="P25" s="188"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="188"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -31211,17 +31259,17 @@
       <c r="I26" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K26" s="184" t="s">
+      <c r="K26" s="188" t="s">
         <v>728</v>
       </c>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="184"/>
-      <c r="S26" s="184"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -31254,17 +31302,17 @@
       <c r="I27" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K27" s="184" t="s">
+      <c r="K27" s="188" t="s">
         <v>730</v>
       </c>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -31298,17 +31346,17 @@
         <f>H28/G28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="184" t="s">
+      <c r="K28" s="188" t="s">
         <v>732</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -31341,20 +31389,20 @@
       <c r="I29" s="129">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K29" s="185" t="s">
+      <c r="K29" s="189" t="s">
         <v>734</v>
       </c>
-      <c r="L29" s="185"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="189"/>
+      <c r="S29" s="189"/>
+      <c r="T29" s="189"/>
+      <c r="U29" s="189"/>
+      <c r="V29" s="189"/>
     </row>
     <row r="30" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="125">
@@ -31384,18 +31432,18 @@
       <c r="I30" s="129">
         <v>0.25059999999999999</v>
       </c>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="185"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="189"/>
+      <c r="S30" s="189"/>
+      <c r="T30" s="189"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="189"/>
     </row>
     <row r="31" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="125">
@@ -32296,11 +32344,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="191" t="s">
         <v>4255</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
       <c r="K1" s="57" t="s">
         <v>791</v>
       </c>
@@ -32450,10 +32498,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="165" t="s">
         <v>4254</v>
       </c>
-      <c r="B8" s="159"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="133"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -32570,11 +32618,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="191" t="s">
         <v>4256</v>
       </c>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
       <c r="K14" s="12">
         <v>110112</v>
       </c>
@@ -32612,13 +32660,13 @@
         <f>RIGHT(A16,LENB(A16)-LEN(A16))</f>
         <v>元</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="192" t="s">
         <v>4258</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
       <c r="K16" s="12">
         <v>110200</v>
       </c>
@@ -32675,13 +32723,13 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="193" t="s">
+      <c r="A20" s="199" t="s">
         <v>4263</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
       <c r="K20" s="12">
         <v>110227</v>
       </c>
@@ -32693,14 +32741,14 @@
       <c r="A21" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="194" t="s">
         <v>787</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191" t="s">
+      <c r="C21" s="194"/>
+      <c r="D21" s="194" t="s">
         <v>788</v>
       </c>
-      <c r="E21" s="191"/>
+      <c r="E21" s="194"/>
       <c r="F21" s="83" t="s">
         <v>714</v>
       </c>
@@ -32721,15 +32769,15 @@
       <c r="A22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="195" t="s">
         <v>4259</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="192" t="str">
+      <c r="C22" s="195"/>
+      <c r="D22" s="198" t="str">
         <f>VLOOKUP(LEFT(B22,6)*1,K:L,2,0)</f>
         <v>江苏省盐城市滨海县</v>
       </c>
-      <c r="E22" s="192"/>
+      <c r="E22" s="198"/>
       <c r="F22" s="145">
         <f>DATE(MID(B22,7,4),MID(B22,11,2),MID(B22,13,2))</f>
         <v>31852</v>
@@ -32750,15 +32798,15 @@
       <c r="A23" s="83" t="s">
         <v>4260</v>
       </c>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="195" t="s">
         <v>790</v>
       </c>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188" t="str">
+      <c r="C23" s="195"/>
+      <c r="D23" s="196" t="str">
         <f>VLOOKUP(LEFT(B23,6)*1,K:L,2,0)</f>
         <v>辽宁省大连市金州区</v>
       </c>
-      <c r="E23" s="189"/>
+      <c r="E23" s="197"/>
       <c r="F23" s="144">
         <f t="shared" ref="F23:F24" si="6">DATE(MID(B23,7,4),MID(B23,11,2),MID(B23,13,2))</f>
         <v>30920</v>
@@ -32779,15 +32827,15 @@
       <c r="A24" s="83" t="s">
         <v>4261</v>
       </c>
-      <c r="B24" s="187" t="s">
+      <c r="B24" s="195" t="s">
         <v>4262</v>
       </c>
-      <c r="C24" s="187"/>
-      <c r="D24" s="188" t="str">
+      <c r="C24" s="195"/>
+      <c r="D24" s="196" t="str">
         <f>VLOOKUP(LEFT(B24,6)*1,K:L,2,0)</f>
         <v>四川省巴中地区南江县</v>
       </c>
-      <c r="E24" s="189"/>
+      <c r="E24" s="197"/>
       <c r="F24" s="144">
         <f t="shared" si="6"/>
         <v>35727</v>
@@ -60365,8 +60413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -60408,15 +60456,15 @@
       <c r="G1" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="165" t="s">
         <v>4264</v>
       </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="200"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="203"/>
       <c r="P1" s="57" t="s">
         <v>4265</v>
       </c>
@@ -60494,12 +60542,12 @@
         <f t="shared" ref="G3:G8" si="2">RANK(E3,$E$2:$E$8)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="165" t="s">
         <v>4272</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
       <c r="M3" s="2"/>
       <c r="P3" s="12" t="s">
         <v>4269</v>
@@ -60580,11 +60628,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="204" t="s">
         <v>4273</v>
       </c>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="12" t="s">
@@ -60856,7 +60904,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="205" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -60891,7 +60939,7 @@
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -60924,7 +60972,7 @@
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -60957,7 +61005,7 @@
       <c r="N17" s="115"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
@@ -60990,7 +61038,7 @@
       <c r="N18" s="115"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
@@ -61023,7 +61071,7 @@
       <c r="N19" s="115"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="204"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -61056,11 +61104,11 @@
       <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="206"/>
-      <c r="C21" s="207"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="210"/>
       <c r="D21" s="116">
         <f>SUM(D15:D20)</f>
         <v>210.8</v>
@@ -61088,7 +61136,7 @@
       <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="205" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -61123,7 +61171,7 @@
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -61156,7 +61204,7 @@
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
@@ -61168,7 +61216,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
@@ -61178,19 +61226,19 @@
       <c r="D25" s="69">
         <v>150</v>
       </c>
-      <c r="F25" s="199" t="s">
+      <c r="F25" s="211" t="s">
         <v>4274</v>
       </c>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="204"/>
+      <c r="A26" s="207"/>
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
@@ -61214,28 +61262,28 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="205" t="s">
+      <c r="A27" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="207"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="210"/>
       <c r="D27" s="116">
         <f>SUM(D22:D26)</f>
         <v>628</v>
       </c>
-      <c r="F27" s="199" t="s">
+      <c r="F27" s="211" t="s">
         <v>4276</v>
       </c>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
-      <c r="M27" s="199"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="211"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202" t="s">
+      <c r="A28" s="205" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -61259,7 +61307,7 @@
       <c r="N28" s="139"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -61271,7 +61319,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
@@ -61285,7 +61333,7 @@
       <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="203"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
@@ -61298,7 +61346,7 @@
       <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="203"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="12" t="s">
         <v>41</v>
       </c>
@@ -61311,7 +61359,7 @@
       <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="204"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
@@ -61324,11 +61372,11 @@
       <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="207"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="210"/>
       <c r="D34" s="116">
         <f>SUM(D28:D33)</f>
         <v>1689.28</v>
@@ -61342,13 +61390,13 @@
       <c r="R35" s="140"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="165" t="s">
         <v>4320</v>
       </c>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -61430,43 +61478,43 @@
         <v>4284</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="209" t="str">
+      <c r="C41" s="161" t="str">
         <f>INDEX($A$37:$A$46,COLUMN()-2)</f>
         <v>姓名</v>
       </c>
-      <c r="D41" s="210" t="str">
+      <c r="D41" s="162" t="str">
         <f t="shared" ref="D41:L41" si="7">INDEX($A$37:$A$46,COLUMN()-2)</f>
         <v>汪梅</v>
       </c>
-      <c r="E41" s="210" t="str">
+      <c r="E41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>郭磊</v>
       </c>
-      <c r="F41" s="210" t="str">
+      <c r="F41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>林涛</v>
       </c>
-      <c r="G41" s="210" t="str">
+      <c r="G41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>朱健</v>
       </c>
-      <c r="H41" s="210" t="str">
+      <c r="H41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>李明</v>
       </c>
-      <c r="I41" s="210" t="str">
+      <c r="I41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>王建国</v>
       </c>
-      <c r="J41" s="210" t="str">
+      <c r="J41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>陈玉</v>
       </c>
-      <c r="K41" s="210" t="str">
+      <c r="K41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>张华</v>
       </c>
-      <c r="L41" s="210" t="str">
+      <c r="L41" s="162" t="str">
         <f t="shared" si="7"/>
         <v>李丽</v>
       </c>
@@ -61552,32 +61600,32 @@
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="208"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="208"/>
-      <c r="H47" s="208"/>
-      <c r="I47" s="208"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="208"/>
-      <c r="L47" s="208"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
     </row>
     <row r="48" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>4281</v>
       </c>
-      <c r="C48" s="209" t="str">
+      <c r="C48" s="161" t="str">
         <f>INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
         <v>汪梅</v>
       </c>
-      <c r="D48" s="210" t="str">
-        <f t="shared" ref="D48:E54" si="8">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+      <c r="D48" s="162" t="str">
+        <f t="shared" ref="D48:E52" si="8">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
         <v>郭磊</v>
       </c>
-      <c r="E48" s="210" t="str">
+      <c r="E48" s="162" t="str">
         <f t="shared" si="8"/>
         <v>林涛</v>
       </c>
@@ -61586,15 +61634,15 @@
       <c r="A49" s="13" t="s">
         <v>4282</v>
       </c>
-      <c r="C49" s="210" t="str">
+      <c r="C49" s="162" t="str">
         <f t="shared" ref="C49:C52" si="9">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
         <v>朱健</v>
       </c>
-      <c r="D49" s="210" t="str">
+      <c r="D49" s="162" t="str">
         <f t="shared" si="8"/>
         <v>李明</v>
       </c>
-      <c r="E49" s="210" t="str">
+      <c r="E49" s="162" t="str">
         <f t="shared" si="8"/>
         <v>王建国</v>
       </c>
@@ -61607,15 +61655,15 @@
       <c r="A50" s="13" t="s">
         <v>4283</v>
       </c>
-      <c r="C50" s="210" t="str">
+      <c r="C50" s="162" t="str">
         <f t="shared" si="9"/>
         <v>陈玉</v>
       </c>
-      <c r="D50" s="210" t="str">
+      <c r="D50" s="162" t="str">
         <f t="shared" si="8"/>
         <v>张华</v>
       </c>
-      <c r="E50" s="210" t="str">
+      <c r="E50" s="162" t="str">
         <f t="shared" si="8"/>
         <v>李丽</v>
       </c>
@@ -61627,15 +61675,15 @@
       <c r="A51" s="13" t="s">
         <v>4284</v>
       </c>
-      <c r="C51" s="210" t="str">
+      <c r="C51" s="162" t="str">
         <f t="shared" si="9"/>
         <v>汪成</v>
       </c>
-      <c r="D51" s="210" t="str">
+      <c r="D51" s="162" t="str">
         <f t="shared" si="8"/>
         <v>李军</v>
       </c>
-      <c r="E51" s="210" t="str">
+      <c r="E51" s="162" t="str">
         <f t="shared" si="8"/>
         <v>王红蕾</v>
       </c>
@@ -61647,15 +61695,15 @@
       <c r="A52" s="13" t="s">
         <v>4285</v>
       </c>
-      <c r="C52" s="210" t="str">
+      <c r="C52" s="162" t="str">
         <f t="shared" si="9"/>
         <v>王华</v>
       </c>
-      <c r="D52" s="210" t="str">
+      <c r="D52" s="162" t="str">
         <f t="shared" si="8"/>
         <v>孙传富</v>
       </c>
-      <c r="E52" s="210" t="str">
+      <c r="E52" s="162" t="str">
         <f t="shared" si="8"/>
         <v>赵炎</v>
       </c>
@@ -61667,9 +61715,9 @@
       <c r="A53" s="13" t="s">
         <v>4286</v>
       </c>
-      <c r="D53" s="212"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="212"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -61770,13 +61818,13 @@
       <c r="K64"/>
     </row>
     <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="196" t="s">
+      <c r="A65" s="200" t="s">
         <v>4290</v>
       </c>
-      <c r="B65" s="197"/>
-      <c r="C65" s="197"/>
-      <c r="D65" s="197"/>
-      <c r="E65" s="198"/>
+      <c r="B65" s="201"/>
+      <c r="C65" s="201"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="202"/>
       <c r="F65"/>
       <c r="G65" s="140"/>
       <c r="H65"/>
@@ -61827,7 +61875,7 @@
         <v>40893.083149311875</v>
       </c>
       <c r="F67"/>
-      <c r="G67" s="211">
+      <c r="G67" s="163">
         <f t="shared" ref="G67:G70" si="10">INDEX($E:$E,ROW()+(ROW()-66)*4+1)</f>
         <v>43537.557757683368</v>
       </c>
@@ -61853,7 +61901,7 @@
         <v>22294.085220814908</v>
       </c>
       <c r="F68"/>
-      <c r="G68" s="211">
+      <c r="G68" s="163">
         <f t="shared" si="10"/>
         <v>51700.030820578511</v>
       </c>
@@ -61879,7 +61927,7 @@
         <v>24318.374117613792</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="211">
+      <c r="G69" s="163">
         <f t="shared" si="10"/>
         <v>32726.657776180989</v>
       </c>
@@ -61889,15 +61937,15 @@
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="200" t="s">
         <v>4296</v>
       </c>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="198"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="201"/>
+      <c r="D70" s="201"/>
+      <c r="E70" s="202"/>
       <c r="F70"/>
-      <c r="G70" s="211">
+      <c r="G70" s="163">
         <f t="shared" si="10"/>
         <v>43537.557757683368</v>
       </c>
@@ -61994,13 +62042,13 @@
       <c r="G74"/>
     </row>
     <row r="75" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="200" t="s">
         <v>4301</v>
       </c>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="198"/>
+      <c r="B75" s="201"/>
+      <c r="C75" s="201"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="202"/>
       <c r="F75"/>
       <c r="G75"/>
     </row>
@@ -62081,13 +62129,13 @@
       <c r="G79"/>
     </row>
     <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="196" t="s">
+      <c r="A80" s="200" t="s">
         <v>4306</v>
       </c>
-      <c r="B80" s="197"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
-      <c r="E80" s="198"/>
+      <c r="B80" s="201"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
+      <c r="E80" s="202"/>
       <c r="F80"/>
       <c r="G80"/>
     </row>
@@ -62168,13 +62216,13 @@
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="196" t="s">
+      <c r="A85" s="200" t="s">
         <v>4312</v>
       </c>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="198"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="202"/>
       <c r="F85"/>
       <c r="G85"/>
     </row>
@@ -62256,11 +62304,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A80:E80"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I3:L3"/>
@@ -62273,6 +62316,11 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="F27:M27"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A80:E80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/06_函数和公式.xlsx
+++ b/excel/06_函数和公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A423B313-6F50-4230-92B1-0ECE0C226654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28800C5C-D132-4FA3-A5D9-AED40F25D03A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单元格引用" sheetId="18" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5836" uniqueCount="4322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="4319">
   <si>
     <t>数量</t>
   </si>
@@ -13301,15 +13301,6 @@
   </si>
   <si>
     <t>王红蕾</t>
-  </si>
-  <si>
-    <t>王华</t>
-  </si>
-  <si>
-    <t>孙传富</t>
-  </si>
-  <si>
-    <t>赵炎</t>
   </si>
   <si>
     <t>取每周第二个数据</t>
@@ -14217,6 +14208,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14265,16 +14265,22 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14331,9 +14337,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14356,18 +14359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15086,7 +15077,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15131,17 +15122,17 @@
       <c r="G2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
     </row>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="120">
@@ -15158,18 +15149,18 @@
       <c r="G3" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="169" t="s">
+      <c r="H3" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120">
@@ -15196,21 +15187,21 @@
         <f>C4+$E$2</f>
         <v>1500</v>
       </c>
-      <c r="G5" s="165" t="s">
+      <c r="G5" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120">
@@ -15230,18 +15221,18 @@
       <c r="G7" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
@@ -15660,7 +15651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430C53D3-E8BE-4CD9-976B-26FB9E1A25CE}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -16502,15 +16493,15 @@
         <f>IF(I2&gt;=600,"第一批",IF(I2&gt;=400,"第二批","落榜"))</f>
         <v>第一批</v>
       </c>
-      <c r="L2" s="172" t="s">
+      <c r="L2" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
       <c r="S2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16835,12 +16826,12 @@
         <v>1000</v>
       </c>
       <c r="O9" s="50"/>
-      <c r="P9" s="172" t="s">
+      <c r="P9" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
@@ -20197,10 +20188,10 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="174"/>
+      <c r="I4" s="177"/>
       <c r="L4" s="79" t="s">
         <v>10</v>
       </c>
@@ -20724,10 +20715,10 @@
       <c r="F16" s="69">
         <v>277.7</v>
       </c>
-      <c r="H16" s="175" t="s">
+      <c r="H16" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="176"/>
+      <c r="I16" s="179"/>
       <c r="J16" s="57" t="s">
         <v>190</v>
       </c>
@@ -20766,10 +20757,10 @@
       <c r="F17" s="69">
         <v>278</v>
       </c>
-      <c r="H17" s="177" t="s">
+      <c r="H17" s="180" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="178"/>
+      <c r="I17" s="181"/>
       <c r="J17" s="14">
         <f t="shared" ref="J17:J29" si="3">COUNTIF($H$17:$H$29,H17&amp;"*")</f>
         <v>1</v>
@@ -20817,10 +20808,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="177" t="s">
+      <c r="H18" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="178"/>
+      <c r="I18" s="181"/>
       <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -20868,10 +20859,10 @@
       <c r="F19" s="69">
         <v>408</v>
       </c>
-      <c r="H19" s="179" t="s">
+      <c r="H19" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="180"/>
+      <c r="I19" s="183"/>
       <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -20919,10 +20910,10 @@
       <c r="F20" s="69">
         <v>560</v>
       </c>
-      <c r="H20" s="179" t="s">
+      <c r="H20" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="180"/>
+      <c r="I20" s="183"/>
       <c r="J20" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21170,10 +21161,10 @@
       <c r="F25" s="69">
         <v>1016.78</v>
       </c>
-      <c r="H25" s="179" t="s">
+      <c r="H25" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="180"/>
+      <c r="I25" s="183"/>
       <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21366,10 +21357,10 @@
       <c r="F29" s="69">
         <v>1256.3</v>
       </c>
-      <c r="H29" s="179" t="s">
+      <c r="H29" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="180"/>
+      <c r="I29" s="183"/>
       <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21468,10 +21459,10 @@
       <c r="F32" s="69">
         <v>1328.9</v>
       </c>
-      <c r="H32" s="165" t="s">
+      <c r="H32" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="166"/>
+      <c r="I32" s="169"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -21604,10 +21595,10 @@
       <c r="F37" s="69">
         <v>2977.9</v>
       </c>
-      <c r="H37" s="165" t="s">
+      <c r="H37" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="166"/>
+      <c r="I37" s="169"/>
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -22042,7 +22033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E661589-EA39-45A3-BBAB-766F80EB3FAF}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -22955,11 +22946,11 @@
       <c r="F4" s="69">
         <v>20</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
       <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
@@ -23168,13 +23159,13 @@
       <c r="F9" s="69">
         <v>78</v>
       </c>
-      <c r="H9" s="165" t="s">
+      <c r="H9" s="168" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="188"/>
       <c r="M9" s="12" t="s">
         <v>183</v>
       </c>
@@ -23247,9 +23238,9 @@
         <v>84146.86</v>
       </c>
       <c r="M11" s="141"/>
-      <c r="N11" s="212"/>
+      <c r="N11" s="165"/>
       <c r="O11" s="141"/>
-      <c r="P11" s="212"/>
+      <c r="P11" s="165"/>
     </row>
     <row r="12" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -23270,13 +23261,13 @@
       <c r="F12" s="69">
         <v>180</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="168" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -23316,13 +23307,13 @@
       <c r="N13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="213"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
     </row>
     <row r="14" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -23364,14 +23355,14 @@
         <v>5</v>
       </c>
       <c r="O14" s="184" t="s">
-        <v>4321</v>
-      </c>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="215"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="214"/>
+        <v>4318</v>
+      </c>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="167"/>
     </row>
     <row r="15" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -23492,10 +23483,10 @@
       <c r="F18" s="69">
         <v>350</v>
       </c>
-      <c r="H18" s="175" t="s">
+      <c r="H18" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="176"/>
+      <c r="I18" s="179"/>
       <c r="J18" s="57" t="s">
         <v>250</v>
       </c>
@@ -23528,10 +23519,10 @@
       <c r="J19" s="12">
         <v>1000</v>
       </c>
-      <c r="L19" s="175" t="s">
+      <c r="L19" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="176"/>
+      <c r="M19" s="179"/>
       <c r="N19" s="57" t="s">
         <v>251</v>
       </c>
@@ -23939,10 +23930,10 @@
       <c r="F33" s="69">
         <v>1421.66</v>
       </c>
-      <c r="H33" s="165" t="s">
+      <c r="H33" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="I33" s="166"/>
+      <c r="I33" s="169"/>
     </row>
     <row r="34" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
@@ -23963,15 +23954,15 @@
       <c r="F34" s="69">
         <v>1755</v>
       </c>
-      <c r="H34" s="181" t="s">
+      <c r="H34" s="186" t="s">
         <v>253</v>
       </c>
-      <c r="I34" s="182"/>
+      <c r="I34" s="187"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="181" t="s">
+      <c r="K34" s="186" t="s">
         <v>254</v>
       </c>
-      <c r="L34" s="182"/>
+      <c r="L34" s="187"/>
     </row>
     <row r="35" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
@@ -24202,15 +24193,15 @@
       <c r="F42" s="69">
         <v>31330.77</v>
       </c>
-      <c r="H42" s="165" t="s">
+      <c r="H42" s="168" t="s">
         <v>702</v>
       </c>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="166"/>
-      <c r="N42" s="166"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="169"/>
+      <c r="K42" s="169"/>
+      <c r="L42" s="169"/>
+      <c r="M42" s="169"/>
+      <c r="N42" s="169"/>
     </row>
     <row r="43" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -24485,7 +24476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416A391-5DA6-45C6-9B21-52C1CEE60EC2}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
@@ -25231,14 +25222,14 @@
       <c r="H1" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="168" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -25270,19 +25261,19 @@
       <c r="H2" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -25379,11 +25370,11 @@
         <v>273</v>
       </c>
       <c r="O5" s="41"/>
-      <c r="P5" s="165" t="s">
+      <c r="P5" s="168" t="s">
         <v>4277</v>
       </c>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
     </row>
     <row r="6" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
@@ -25425,14 +25416,14 @@
         <f>INDEX(A:A,MATCH(M6,B:B,0))</f>
         <v>CHOPS</v>
       </c>
-      <c r="P6" s="165" t="s">
+      <c r="P6" s="168" t="s">
         <v>4278</v>
       </c>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
     </row>
     <row r="7" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -25515,12 +25506,12 @@
         <f t="shared" si="1"/>
         <v>HANAR</v>
       </c>
-      <c r="P8" s="165" t="s">
+      <c r="P8" s="168" t="s">
         <v>4279</v>
       </c>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
     </row>
     <row r="9" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
@@ -26282,19 +26273,19 @@
       <c r="H23" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="187"/>
-      <c r="N23" s="165" t="s">
+      <c r="K23" s="192"/>
+      <c r="N23" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="169"/>
     </row>
     <row r="24" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
@@ -26741,13 +26732,13 @@
       <c r="H32" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="183" t="s">
+      <c r="J32" s="189" t="s">
         <v>460</v>
       </c>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
       <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -26837,7 +26828,7 @@
       <c r="P34" s="184" t="s">
         <v>473</v>
       </c>
-      <c r="Q34" s="185"/>
+      <c r="Q34" s="190"/>
     </row>
     <row r="35" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
@@ -27388,14 +27379,14 @@
       <c r="H48" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="173" t="s">
+      <c r="J48" s="176" t="s">
         <v>518</v>
       </c>
-      <c r="K48" s="174"/>
-      <c r="L48" s="174"/>
-      <c r="M48" s="174"/>
-      <c r="N48" s="174"/>
-      <c r="O48" s="174"/>
+      <c r="K48" s="177"/>
+      <c r="L48" s="177"/>
+      <c r="M48" s="177"/>
+      <c r="N48" s="177"/>
+      <c r="O48" s="177"/>
     </row>
     <row r="49" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
@@ -28848,7 +28839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF1083F-DAB5-4217-8514-241F11A0E5E9}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -29629,21 +29620,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="168" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
@@ -29818,12 +29809,12 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="168" t="s">
         <v>686</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29967,19 +29958,19 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="168" t="s">
         <v>690</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
@@ -30075,14 +30066,14 @@
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="168" t="s">
         <v>695</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
@@ -30164,12 +30155,12 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="168" t="s">
         <v>699</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
@@ -30253,7 +30244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EDCCE1-1013-4718-B5AA-6F55D670BCD3}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -30910,10 +30901,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="127"/>
-      <c r="K17" s="165" t="s">
+      <c r="K17" s="168" t="s">
         <v>716</v>
       </c>
-      <c r="L17" s="165"/>
+      <c r="L17" s="168"/>
     </row>
     <row r="18" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="125">
@@ -30944,14 +30935,14 @@
         <v>2.52</v>
       </c>
       <c r="J18" s="127"/>
-      <c r="K18" s="190" t="s">
+      <c r="K18" s="195" t="s">
         <v>718</v>
       </c>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="190"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="195"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="128"/>
       <c r="S18" s="4"/>
@@ -30986,15 +30977,15 @@
         <v>0.4088</v>
       </c>
       <c r="J19" s="127"/>
-      <c r="K19" s="190" t="s">
+      <c r="K19" s="195" t="s">
         <v>720</v>
       </c>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
       <c r="R19" s="128"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -31028,14 +31019,14 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="J20" s="127"/>
-      <c r="K20" s="190" t="s">
+      <c r="K20" s="195" t="s">
         <v>743</v>
       </c>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="195"/>
       <c r="Q20" s="130"/>
       <c r="R20" s="130"/>
       <c r="S20" s="4"/>
@@ -31070,15 +31061,15 @@
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="188" t="s">
+      <c r="K21" s="193" t="s">
         <v>744</v>
       </c>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="193"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -31111,17 +31102,17 @@
       <c r="I22" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K22" s="188" t="s">
+      <c r="K22" s="193" t="s">
         <v>745</v>
       </c>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="188"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="193"/>
       <c r="T22" s="11"/>
       <c r="U22" s="121"/>
     </row>
@@ -31182,11 +31173,11 @@
       <c r="I24" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="K24" s="165" t="s">
+      <c r="K24" s="168" t="s">
         <v>726</v>
       </c>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
     </row>
     <row r="25" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="125">
@@ -31216,17 +31207,17 @@
       <c r="I25" s="129">
         <v>0.36809999999999998</v>
       </c>
-      <c r="K25" s="188" t="s">
+      <c r="K25" s="193" t="s">
         <v>727</v>
       </c>
-      <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
-      <c r="S25" s="188"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -31259,17 +31250,17 @@
       <c r="I26" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K26" s="188" t="s">
+      <c r="K26" s="193" t="s">
         <v>728</v>
       </c>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="188"/>
-      <c r="S26" s="188"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -31302,17 +31293,17 @@
       <c r="I27" s="129">
         <v>0.88009999999999999</v>
       </c>
-      <c r="K27" s="188" t="s">
+      <c r="K27" s="193" t="s">
         <v>730</v>
       </c>
-      <c r="L27" s="188"/>
-      <c r="M27" s="188"/>
-      <c r="N27" s="188"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="188"/>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="188"/>
-      <c r="S27" s="188"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="193"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="193"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -31346,17 +31337,17 @@
         <f>H28/G28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="188" t="s">
+      <c r="K28" s="193" t="s">
         <v>732</v>
       </c>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="188"/>
-      <c r="R28" s="188"/>
-      <c r="S28" s="188"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -31389,20 +31380,20 @@
       <c r="I29" s="129">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K29" s="189" t="s">
+      <c r="K29" s="194" t="s">
         <v>734</v>
       </c>
-      <c r="L29" s="189"/>
-      <c r="M29" s="189"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="189"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="189"/>
-      <c r="S29" s="189"/>
-      <c r="T29" s="189"/>
-      <c r="U29" s="189"/>
-      <c r="V29" s="189"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
     </row>
     <row r="30" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="125">
@@ -31432,18 +31423,18 @@
       <c r="I30" s="129">
         <v>0.25059999999999999</v>
       </c>
-      <c r="K30" s="189"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="189"/>
-      <c r="O30" s="189"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="189"/>
-      <c r="S30" s="189"/>
-      <c r="T30" s="189"/>
-      <c r="U30" s="189"/>
-      <c r="V30" s="189"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
     </row>
     <row r="31" spans="1:22" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="125">
@@ -32344,11 +32335,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="196" t="s">
         <v>4255</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
       <c r="K1" s="57" t="s">
         <v>791</v>
       </c>
@@ -32498,10 +32489,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="168" t="s">
         <v>4254</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="133"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -32618,11 +32609,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="196" t="s">
         <v>4256</v>
       </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
       <c r="K14" s="12">
         <v>110112</v>
       </c>
@@ -32660,13 +32651,13 @@
         <f>RIGHT(A16,LENB(A16)-LEN(A16))</f>
         <v>元</v>
       </c>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="197" t="s">
         <v>4258</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
       <c r="K16" s="12">
         <v>110200</v>
       </c>
@@ -32723,13 +32714,13 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="204" t="s">
         <v>4263</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
       <c r="K20" s="12">
         <v>110227</v>
       </c>
@@ -32741,14 +32732,14 @@
       <c r="A21" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="199" t="s">
         <v>787</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194" t="s">
+      <c r="C21" s="199"/>
+      <c r="D21" s="199" t="s">
         <v>788</v>
       </c>
-      <c r="E21" s="194"/>
+      <c r="E21" s="199"/>
       <c r="F21" s="83" t="s">
         <v>714</v>
       </c>
@@ -32769,15 +32760,15 @@
       <c r="A22" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="200" t="s">
         <v>4259</v>
       </c>
-      <c r="C22" s="195"/>
-      <c r="D22" s="198" t="str">
+      <c r="C22" s="200"/>
+      <c r="D22" s="203" t="str">
         <f>VLOOKUP(LEFT(B22,6)*1,K:L,2,0)</f>
         <v>江苏省盐城市滨海县</v>
       </c>
-      <c r="E22" s="198"/>
+      <c r="E22" s="203"/>
       <c r="F22" s="145">
         <f>DATE(MID(B22,7,4),MID(B22,11,2),MID(B22,13,2))</f>
         <v>31852</v>
@@ -32798,15 +32789,15 @@
       <c r="A23" s="83" t="s">
         <v>4260</v>
       </c>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="200" t="s">
         <v>790</v>
       </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196" t="str">
+      <c r="C23" s="200"/>
+      <c r="D23" s="201" t="str">
         <f>VLOOKUP(LEFT(B23,6)*1,K:L,2,0)</f>
         <v>辽宁省大连市金州区</v>
       </c>
-      <c r="E23" s="197"/>
+      <c r="E23" s="202"/>
       <c r="F23" s="144">
         <f t="shared" ref="F23:F24" si="6">DATE(MID(B23,7,4),MID(B23,11,2),MID(B23,13,2))</f>
         <v>30920</v>
@@ -32827,15 +32818,15 @@
       <c r="A24" s="83" t="s">
         <v>4261</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B24" s="200" t="s">
         <v>4262</v>
       </c>
-      <c r="C24" s="195"/>
-      <c r="D24" s="196" t="str">
+      <c r="C24" s="200"/>
+      <c r="D24" s="201" t="str">
         <f>VLOOKUP(LEFT(B24,6)*1,K:L,2,0)</f>
         <v>四川省巴中地区南江县</v>
       </c>
-      <c r="E24" s="197"/>
+      <c r="E24" s="202"/>
       <c r="F24" s="144">
         <f t="shared" si="6"/>
         <v>35727</v>
@@ -60411,10 +60402,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -60427,11 +60418,13 @@
     <col min="6" max="6" width="8.796875" style="15" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" style="15" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="15" customWidth="1"/>
     <col min="10" max="10" width="8.796875" style="15"/>
-    <col min="11" max="11" width="8.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="15"/>
+    <col min="11" max="11" width="8.59765625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9" style="15" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="15"/>
+    <col min="14" max="14" width="8.5" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -60456,15 +60449,15 @@
       <c r="G1" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="165" t="s">
+      <c r="I1" s="168" t="s">
         <v>4264</v>
       </c>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="203"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="188"/>
       <c r="P1" s="57" t="s">
         <v>4265</v>
       </c>
@@ -60542,12 +60535,12 @@
         <f t="shared" ref="G3:G8" si="2">RANK(E3,$E$2:$E$8)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="168" t="s">
         <v>4272</v>
       </c>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
       <c r="M3" s="2"/>
       <c r="P3" s="12" t="s">
         <v>4269</v>
@@ -60628,11 +60621,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I5" s="204" t="s">
+      <c r="I5" s="208" t="s">
         <v>4273</v>
       </c>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="12" t="s">
@@ -60904,7 +60897,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="209" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -60939,7 +60932,7 @@
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -60972,7 +60965,7 @@
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="206"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -61005,7 +60998,7 @@
       <c r="N17" s="115"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206"/>
+      <c r="A18" s="210"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
@@ -61038,7 +61031,7 @@
       <c r="N18" s="115"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="206"/>
+      <c r="A19" s="210"/>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
@@ -61071,7 +61064,7 @@
       <c r="N19" s="115"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="207"/>
+      <c r="A20" s="211"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -61104,11 +61097,11 @@
       <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="209"/>
-      <c r="C21" s="210"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
       <c r="D21" s="116">
         <f>SUM(D15:D20)</f>
         <v>210.8</v>
@@ -61136,7 +61129,7 @@
       <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="209" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -61171,7 +61164,7 @@
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="206"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -61204,7 +61197,7 @@
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="206"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
@@ -61216,7 +61209,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
@@ -61226,19 +61219,19 @@
       <c r="D25" s="69">
         <v>150</v>
       </c>
-      <c r="F25" s="211" t="s">
+      <c r="F25" s="215" t="s">
         <v>4274</v>
       </c>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="207"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
@@ -61262,28 +61255,28 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="208" t="s">
+      <c r="A27" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="209"/>
-      <c r="C27" s="210"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="214"/>
       <c r="D27" s="116">
         <f>SUM(D22:D26)</f>
         <v>628</v>
       </c>
-      <c r="F27" s="211" t="s">
+      <c r="F27" s="215" t="s">
         <v>4276</v>
       </c>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="215"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="209" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -61307,7 +61300,7 @@
       <c r="N28" s="139"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="206"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -61319,7 +61312,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="206"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
@@ -61333,7 +61326,7 @@
       <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="206"/>
+      <c r="A31" s="210"/>
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
@@ -61346,7 +61339,7 @@
       <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="206"/>
+      <c r="A32" s="210"/>
       <c r="B32" s="12" t="s">
         <v>41</v>
       </c>
@@ -61359,7 +61352,7 @@
       <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="207"/>
+      <c r="A33" s="211"/>
       <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
@@ -61372,11 +61365,11 @@
       <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="208" t="s">
+      <c r="A34" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="209"/>
-      <c r="C34" s="210"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="214"/>
       <c r="D34" s="116">
         <f>SUM(D28:D33)</f>
         <v>1689.28</v>
@@ -61390,13 +61383,13 @@
       <c r="R35" s="140"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="165" t="s">
-        <v>4320</v>
-      </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
+      <c r="A36" s="168" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -61618,15 +61611,15 @@
         <v>4281</v>
       </c>
       <c r="C48" s="161" t="str">
-        <f>INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>汪梅</v>
       </c>
       <c r="D48" s="162" t="str">
-        <f t="shared" ref="D48:E52" si="8">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>郭磊</v>
       </c>
       <c r="E48" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>林涛</v>
       </c>
     </row>
@@ -61635,15 +61628,15 @@
         <v>4282</v>
       </c>
       <c r="C49" s="162" t="str">
-        <f t="shared" ref="C49:C52" si="9">INDEX($A$48:$A$62,(ROW()-47)*3+COLUMN()-5)</f>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>朱健</v>
       </c>
       <c r="D49" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>李明</v>
       </c>
       <c r="E49" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>王建国</v>
       </c>
       <c r="H49"/>
@@ -61656,15 +61649,15 @@
         <v>4283</v>
       </c>
       <c r="C50" s="162" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>陈玉</v>
       </c>
       <c r="D50" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>张华</v>
       </c>
       <c r="E50" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>李丽</v>
       </c>
       <c r="I50"/>
@@ -61676,15 +61669,15 @@
         <v>4284</v>
       </c>
       <c r="C51" s="162" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>汪成</v>
       </c>
       <c r="D51" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>李军</v>
       </c>
       <c r="E51" s="162" t="str">
-        <f t="shared" si="8"/>
+        <f>INDEX($A$48:$A$59,(ROW()-47)*3+COLUMN()-5)</f>
         <v>王红蕾</v>
       </c>
       <c r="I51"/>
@@ -61695,18 +61688,9 @@
       <c r="A52" s="13" t="s">
         <v>4285</v>
       </c>
-      <c r="C52" s="162" t="str">
-        <f t="shared" si="9"/>
-        <v>王华</v>
-      </c>
-      <c r="D52" s="162" t="str">
-        <f t="shared" si="8"/>
-        <v>孙传富</v>
-      </c>
-      <c r="E52" s="162" t="str">
-        <f t="shared" si="8"/>
-        <v>赵炎</v>
-      </c>
+      <c r="C52" s="162"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -61765,7 +61749,7 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>4315</v>
       </c>
@@ -61775,58 +61759,109 @@
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>4316</v>
-      </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
     <row r="61" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>4317</v>
-      </c>
+      <c r="A61" s="135" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B61" s="135"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>4318</v>
-      </c>
+      <c r="A62" s="205" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B62" s="206"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="207"/>
+      <c r="F62"/>
+      <c r="G62" s="140"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B63" s="155" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C63" s="155">
+        <v>16</v>
+      </c>
+      <c r="D63" s="156">
+        <v>19269.685163999999</v>
+      </c>
+      <c r="E63" s="156">
+        <v>18982.847759558852</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" s="157">
+        <f>INDEX($E:$E,ROW()+(ROW()-63)*4+1)</f>
+        <v>40893.083149311875</v>
+      </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="135" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B64" s="135"/>
+      <c r="A64" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B64" s="155" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C64" s="155">
+        <v>40</v>
+      </c>
+      <c r="D64" s="156">
+        <v>39465.169800000003</v>
+      </c>
+      <c r="E64" s="156">
+        <v>40893.083149311875</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" s="163">
+        <f t="shared" ref="G64:G67" si="8">INDEX($E:$E,ROW()+(ROW()-63)*4+1)</f>
+        <v>43537.557757683368</v>
+      </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
     <row r="65" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="200" t="s">
-        <v>4290</v>
-      </c>
-      <c r="B65" s="201"/>
-      <c r="C65" s="201"/>
-      <c r="D65" s="201"/>
-      <c r="E65" s="202"/>
+      <c r="A65" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B65" s="155" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C65" s="155">
+        <v>20</v>
+      </c>
+      <c r="D65" s="156">
+        <v>21015.944745000001</v>
+      </c>
+      <c r="E65" s="156">
+        <v>22294.085220814908</v>
+      </c>
       <c r="F65"/>
-      <c r="G65" s="140"/>
+      <c r="G65" s="163">
+        <f t="shared" si="8"/>
+        <v>51700.030820578511</v>
+      </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
@@ -61837,21 +61872,21 @@
         <v>4291</v>
       </c>
       <c r="B66" s="155" t="s">
-        <v>4292</v>
+        <v>4295</v>
       </c>
       <c r="C66" s="155">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D66" s="156">
-        <v>19269.685163999999</v>
+        <v>23710.258592999999</v>
       </c>
       <c r="E66" s="156">
-        <v>18982.847759558852</v>
+        <v>24318.374117613792</v>
       </c>
       <c r="F66"/>
-      <c r="G66" s="157">
-        <f>INDEX($E:$E,ROW()+(ROW()-66)*4+1)</f>
-        <v>40893.083149311875</v>
+      <c r="G66" s="163">
+        <f t="shared" si="8"/>
+        <v>32726.657776180989</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
@@ -61859,24 +61894,16 @@
       <c r="K66"/>
     </row>
     <row r="67" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B67" s="155" t="s">
-        <v>4293</v>
-      </c>
-      <c r="C67" s="155">
-        <v>40</v>
-      </c>
-      <c r="D67" s="156">
-        <v>39465.169800000003</v>
-      </c>
-      <c r="E67" s="156">
-        <v>40893.083149311875</v>
-      </c>
+      <c r="A67" s="205" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B67" s="206"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="206"/>
+      <c r="E67" s="207"/>
       <c r="F67"/>
       <c r="G67" s="163">
-        <f t="shared" ref="G67:G70" si="10">INDEX($E:$E,ROW()+(ROW()-66)*4+1)</f>
+        <f t="shared" si="8"/>
         <v>43537.557757683368</v>
       </c>
       <c r="H67"/>
@@ -61889,22 +61916,18 @@
         <v>4291</v>
       </c>
       <c r="B68" s="155" t="s">
-        <v>4294</v>
+        <v>4297</v>
       </c>
       <c r="C68" s="155">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D68" s="156">
-        <v>21015.944745000001</v>
+        <v>20015.072431199998</v>
       </c>
       <c r="E68" s="156">
-        <v>22294.085220814908</v>
+        <v>20256.694699447638</v>
       </c>
       <c r="F68"/>
-      <c r="G68" s="163">
-        <f t="shared" si="10"/>
-        <v>51700.030820578511</v>
-      </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
@@ -61915,40 +61938,42 @@
         <v>4291</v>
       </c>
       <c r="B69" s="155" t="s">
-        <v>4295</v>
+        <v>4298</v>
       </c>
       <c r="C69" s="155">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D69" s="156">
-        <v>23710.258592999999</v>
+        <v>40014.12141</v>
       </c>
       <c r="E69" s="156">
-        <v>24318.374117613792</v>
+        <v>43537.557757683368</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="163">
-        <f t="shared" si="10"/>
-        <v>32726.657776180989</v>
-      </c>
+      <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="200" t="s">
-        <v>4296</v>
-      </c>
-      <c r="B70" s="201"/>
-      <c r="C70" s="201"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="202"/>
+      <c r="A70" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B70" s="155" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C70" s="155">
+        <v>100</v>
+      </c>
+      <c r="D70" s="156">
+        <v>21423.94932</v>
+      </c>
+      <c r="E70" s="156">
+        <v>22917.339613203356</v>
+      </c>
       <c r="F70"/>
-      <c r="G70" s="163">
-        <f t="shared" si="10"/>
-        <v>43537.557757683368</v>
-      </c>
+      <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
@@ -61959,96 +61984,85 @@
         <v>4291</v>
       </c>
       <c r="B71" s="155" t="s">
-        <v>4297</v>
+        <v>4300</v>
       </c>
       <c r="C71" s="155">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D71" s="156">
-        <v>20015.072431199998</v>
+        <v>40014.12141</v>
       </c>
       <c r="E71" s="156">
-        <v>20256.694699447638</v>
+        <v>44258.364560249865</v>
       </c>
       <c r="F71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
+      <c r="G71"/>
     </row>
     <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B72" s="155" t="s">
-        <v>4298</v>
-      </c>
-      <c r="C72" s="155">
-        <v>200</v>
-      </c>
-      <c r="D72" s="156">
-        <v>40014.12141</v>
-      </c>
-      <c r="E72" s="156">
-        <v>43537.557757683368</v>
-      </c>
+      <c r="A72" s="205" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B72" s="206"/>
+      <c r="C72" s="206"/>
+      <c r="D72" s="206"/>
+      <c r="E72" s="207"/>
       <c r="F72"/>
       <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
     </row>
     <row r="73" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="155" t="s">
         <v>4291</v>
       </c>
       <c r="B73" s="155" t="s">
-        <v>4299</v>
+        <v>4302</v>
       </c>
       <c r="C73" s="155">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D73" s="156">
-        <v>21423.94932</v>
+        <v>84271.490399999995</v>
       </c>
       <c r="E73" s="156">
-        <v>22917.339613203356</v>
+        <v>92391.153643258687</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
     </row>
     <row r="74" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="155" t="s">
         <v>4291</v>
       </c>
       <c r="B74" s="155" t="s">
-        <v>4300</v>
+        <v>4303</v>
       </c>
       <c r="C74" s="155">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D74" s="156">
-        <v>40014.12141</v>
+        <v>48705.657414599991</v>
       </c>
       <c r="E74" s="156">
-        <v>44258.364560249865</v>
+        <v>51700.030820578511</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="200" t="s">
-        <v>4301</v>
-      </c>
-      <c r="B75" s="201"/>
-      <c r="C75" s="201"/>
-      <c r="D75" s="201"/>
-      <c r="E75" s="202"/>
+      <c r="A75" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B75" s="155" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C75" s="155">
+        <v>224</v>
+      </c>
+      <c r="D75" s="156">
+        <v>47192.034624</v>
+      </c>
+      <c r="E75" s="156">
+        <v>50558.498384562939</v>
+      </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
@@ -62057,36 +62071,28 @@
         <v>4291</v>
       </c>
       <c r="B76" s="155" t="s">
-        <v>4302</v>
+        <v>4305</v>
       </c>
       <c r="C76" s="155">
-        <v>400</v>
+        <v>92</v>
       </c>
       <c r="D76" s="156">
-        <v>84271.490399999995</v>
+        <v>21136.417368599999</v>
       </c>
       <c r="E76" s="156">
-        <v>92391.153643258687</v>
+        <v>22115.228953458598</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B77" s="155" t="s">
-        <v>4303</v>
-      </c>
-      <c r="C77" s="155">
-        <v>212</v>
-      </c>
-      <c r="D77" s="156">
-        <v>48705.657414599991</v>
-      </c>
-      <c r="E77" s="156">
-        <v>51700.030820578511</v>
-      </c>
+      <c r="A77" s="205" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B77" s="206"/>
+      <c r="C77" s="206"/>
+      <c r="D77" s="206"/>
+      <c r="E77" s="207"/>
       <c r="F77"/>
       <c r="G77"/>
     </row>
@@ -62095,16 +62101,16 @@
         <v>4291</v>
       </c>
       <c r="B78" s="155" t="s">
-        <v>4304</v>
+        <v>4307</v>
       </c>
       <c r="C78" s="155">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="D78" s="156">
-        <v>47192.034624</v>
+        <v>27499.508355000002</v>
       </c>
       <c r="E78" s="156">
-        <v>50558.498384562939</v>
+        <v>30712.177367957313</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
@@ -62114,115 +62120,123 @@
         <v>4291</v>
       </c>
       <c r="B79" s="155" t="s">
-        <v>4305</v>
+        <v>4308</v>
       </c>
       <c r="C79" s="155">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D79" s="156">
-        <v>21136.417368599999</v>
+        <v>29993.529048</v>
       </c>
       <c r="E79" s="156">
-        <v>22115.228953458598</v>
+        <v>32726.657776180989</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="200" t="s">
-        <v>4306</v>
-      </c>
-      <c r="B80" s="201"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="201"/>
-      <c r="E80" s="202"/>
+      <c r="A80" s="155" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B80" s="155" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C80" s="155">
+        <v>108</v>
+      </c>
+      <c r="D80" s="156">
+        <v>34682.76271979999</v>
+      </c>
+      <c r="E80" s="156">
+        <v>35738.658109519878</v>
+      </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="155" t="s">
-        <v>4291</v>
+        <v>4309</v>
       </c>
       <c r="B81" s="155" t="s">
-        <v>4307</v>
+        <v>4311</v>
       </c>
       <c r="C81" s="155">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D81" s="156">
-        <v>27499.508355000002</v>
+        <v>12492.951721200001</v>
       </c>
       <c r="E81" s="156">
-        <v>30712.177367957313</v>
+        <v>11098.923925167686</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B82" s="155" t="s">
-        <v>4308</v>
-      </c>
-      <c r="C82" s="155">
-        <v>140</v>
-      </c>
-      <c r="D82" s="156">
-        <v>29993.529048</v>
-      </c>
-      <c r="E82" s="156">
-        <v>32726.657776180989</v>
-      </c>
+      <c r="A82" s="205" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B82" s="206"/>
+      <c r="C82" s="206"/>
+      <c r="D82" s="206"/>
+      <c r="E82" s="207"/>
       <c r="F82"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="155" t="s">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="B83" s="155" t="s">
-        <v>4310</v>
+        <v>4297</v>
       </c>
       <c r="C83" s="155">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D83" s="156">
-        <v>34682.76271979999</v>
+        <v>20015.072431199998</v>
       </c>
       <c r="E83" s="156">
-        <v>35738.658109519878</v>
+        <v>20256.694699447638</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="155" t="s">
-        <v>4309</v>
+        <v>4291</v>
       </c>
       <c r="B84" s="155" t="s">
-        <v>4311</v>
+        <v>4298</v>
       </c>
       <c r="C84" s="155">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="D84" s="156">
-        <v>12492.951721200001</v>
+        <v>40014.12141</v>
       </c>
       <c r="E84" s="156">
-        <v>11098.923925167686</v>
+        <v>43537.557757683368</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="200" t="s">
-        <v>4312</v>
-      </c>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="202"/>
+      <c r="A85" s="155" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B85" s="155" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C85" s="155">
+        <v>100</v>
+      </c>
+      <c r="D85" s="156">
+        <v>21423.94932</v>
+      </c>
+      <c r="E85" s="156">
+        <v>22917.339613203356</v>
+      </c>
       <c r="F85"/>
       <c r="G85"/>
     </row>
@@ -62231,80 +62245,24 @@
         <v>4291</v>
       </c>
       <c r="B86" s="155" t="s">
-        <v>4297</v>
+        <v>4300</v>
       </c>
       <c r="C86" s="155">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D86" s="156">
-        <v>20015.072431199998</v>
+        <v>40014.12141</v>
       </c>
       <c r="E86" s="156">
-        <v>20256.694699447638</v>
+        <v>44258.364560249865</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B87" s="155" t="s">
-        <v>4298</v>
-      </c>
-      <c r="C87" s="155">
-        <v>200</v>
-      </c>
-      <c r="D87" s="156">
-        <v>40014.12141</v>
-      </c>
-      <c r="E87" s="156">
-        <v>43537.557757683368</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B88" s="155" t="s">
-        <v>4299</v>
-      </c>
-      <c r="C88" s="155">
-        <v>100</v>
-      </c>
-      <c r="D88" s="156">
-        <v>21423.94932</v>
-      </c>
-      <c r="E88" s="156">
-        <v>22917.339613203356</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="155" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B89" s="155" t="s">
-        <v>4300</v>
-      </c>
-      <c r="C89" s="155">
-        <v>200</v>
-      </c>
-      <c r="D89" s="156">
-        <v>40014.12141</v>
-      </c>
-      <c r="E89" s="156">
-        <v>44258.364560249865</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A82:E82"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I5:K5"/>
@@ -62317,10 +62275,9 @@
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="F27:M27"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A72:E72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
